--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_24_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_24_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>488773.2960978429</v>
+        <v>355723.9044761723</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23507905.66364772</v>
+        <v>23507905.66364771</v>
       </c>
     </row>
     <row r="9">
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="G11" t="n">
-        <v>23.35464865984562</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>24.83744407087698</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.83744407087698</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>23.35464865984557</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1448,19 +1448,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>21.87682073762839</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1493,16 +1493,16 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>24.83744407087698</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>24.83744407087698</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>24.83744407087698</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>21.87682073762843</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.83744407087698</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>24.83744407087698</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>2.036447642867529</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>21.31820101697809</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>23.35464865984557</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1697,10 +1697,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1736,22 +1736,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>21.87682073762839</v>
       </c>
       <c r="T15" t="n">
-        <v>24.83744407087698</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>24.83744407087698</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="X15" t="n">
-        <v>21.87682073762843</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="G17" t="n">
-        <v>23.35464865984562</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>24.83744407087698</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>24.83744407087698</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>23.35464865984557</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1937,10 +1937,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>21.87682073762838</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1967,13 +1967,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>21.87682073762844</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="R18" t="n">
-        <v>24.83744407087698</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>24.83744407087698</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>24.83744407087698</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2086,13 +2086,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>23.35464865984557</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2125,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>24.83744407087702</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>24.83744407087702</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>23.35464865984562</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2165,16 +2165,16 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>24.83744407087702</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="E21" t="n">
-        <v>24.83744407087702</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="F21" t="n">
-        <v>24.83744407087702</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>21.87682073762848</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>21.87682073762839</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>24.83744407087693</v>
       </c>
     </row>
     <row r="22">
@@ -2323,13 +2323,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>22.85404744466811</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>22.85404744466816</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>37.41536405021009</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>37.41536405021009</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>32.95545265542504</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="T24" t="n">
-        <v>37.41536405021009</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2459,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>37.41536405021009</v>
+        <v>32.95545265542493</v>
       </c>
       <c r="X24" t="n">
-        <v>37.41536405021009</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>22.85404744466812</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08745057082759103</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2581,10 +2581,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>37.41536405021009</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1.448395856862476</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -2596,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>21.31820101697809</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>37.41536405021009</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>37.41536405020997</v>
       </c>
     </row>
     <row r="27">
@@ -2645,22 +2645,22 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="H27" t="n">
-        <v>21.47386146976309</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>37.41536405021009</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>37.41536405021009</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>11.48159118566196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2678,13 +2678,13 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>32.95545265542493</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>37.41536405021009</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.448395856862533</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>37.41536405021009</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>37.41536405021009</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>22.85404744466816</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>21.40565158780558</v>
       </c>
     </row>
     <row r="30">
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>32.95545265542504</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2888,13 +2888,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>37.41536405021009</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>37.41536405021009</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>37.41536405021009</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2927,10 +2927,10 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>32.95545265542493</v>
       </c>
     </row>
     <row r="31">
@@ -3034,16 +3034,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="E32" t="n">
-        <v>22.85404744466816</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>37.41536405021009</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>37.41536405021009</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>22.85404744466811</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3155,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="U33" t="n">
-        <v>37.41536405021009</v>
+        <v>32.95545265542493</v>
       </c>
       <c r="V33" t="n">
-        <v>37.41536405021009</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>37.41536405021009</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>32.95545265542504</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>23.35464865984562</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>24.83744407087676</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3322,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>23.35464865984558</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>24.83744407087676</v>
       </c>
       <c r="W35" t="n">
-        <v>24.83744407087698</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>24.83744407087698</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>24.83744407087676</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3398,22 +3398,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>21.87682073762824</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>24.83744407087676</v>
       </c>
       <c r="V36" t="n">
-        <v>21.87682073762844</v>
+        <v>24.83744407087676</v>
       </c>
       <c r="W36" t="n">
-        <v>24.83744407087698</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>24.83744407087698</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>24.83744407087698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3508,19 +3508,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>23.35464865984557</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="H38" t="n">
-        <v>24.83744407087698</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>21.31820101697809</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>24.83744407087698</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>2.036447642867528</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>21.87682073762838</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3635,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>24.83744407087698</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="W39" t="n">
-        <v>21.87682073762843</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>24.83744407087698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>23.35464865984557</v>
       </c>
       <c r="D41" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>23.35464865984562</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3824,19 +3824,19 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>24.83744407087698</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>21.87682073762838</v>
       </c>
       <c r="F42" t="n">
-        <v>21.87682073762844</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="H42" t="n">
-        <v>24.83744407087698</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>23.35464865984557</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>24.83744407087698</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>24.83744407087698</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>23.35464865984562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4064,19 +4064,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>21.87682073762838</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>24.83744407087698</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4112,10 +4112,10 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>24.83744407087698</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>21.87682073762843</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>75.7542044161748</v>
+        <v>52.16365021431042</v>
       </c>
       <c r="C11" t="n">
-        <v>75.7542044161748</v>
+        <v>52.16365021431042</v>
       </c>
       <c r="D11" t="n">
-        <v>75.7542044161748</v>
+        <v>52.16365021431042</v>
       </c>
       <c r="E11" t="n">
-        <v>75.7542044161748</v>
+        <v>27.07532286999028</v>
       </c>
       <c r="F11" t="n">
-        <v>75.7542044161748</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="G11" t="n">
-        <v>52.16365021431054</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="H11" t="n">
-        <v>27.07532286999035</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="I11" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="J11" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="K11" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="L11" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="M11" t="n">
-        <v>26.57606515583837</v>
+        <v>26.57606515583831</v>
       </c>
       <c r="N11" t="n">
-        <v>51.16513478600659</v>
+        <v>51.16513478600647</v>
       </c>
       <c r="O11" t="n">
-        <v>75.7542044161748</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="P11" t="n">
-        <v>75.7542044161748</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="Q11" t="n">
-        <v>75.7542044161748</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="R11" t="n">
-        <v>75.7542044161748</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="S11" t="n">
-        <v>75.7542044161748</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="T11" t="n">
-        <v>75.7542044161748</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="U11" t="n">
-        <v>75.7542044161748</v>
+        <v>52.16365021431042</v>
       </c>
       <c r="V11" t="n">
-        <v>75.7542044161748</v>
+        <v>52.16365021431042</v>
       </c>
       <c r="W11" t="n">
-        <v>75.7542044161748</v>
+        <v>52.16365021431042</v>
       </c>
       <c r="X11" t="n">
-        <v>75.7542044161748</v>
+        <v>52.16365021431042</v>
       </c>
       <c r="Y11" t="n">
-        <v>75.7542044161748</v>
+        <v>52.16365021431042</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.986995525670159</v>
+        <v>77.25197755863054</v>
       </c>
       <c r="C12" t="n">
-        <v>1.986995525670159</v>
+        <v>77.25197755863054</v>
       </c>
       <c r="D12" t="n">
-        <v>1.986995525670159</v>
+        <v>52.16365021431042</v>
       </c>
       <c r="E12" t="n">
-        <v>1.986995525670159</v>
+        <v>27.07532286999028</v>
       </c>
       <c r="F12" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="G12" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="H12" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="I12" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="J12" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="K12" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="L12" t="n">
-        <v>26.57606515583837</v>
+        <v>26.57606515583831</v>
       </c>
       <c r="M12" t="n">
-        <v>51.16513478600659</v>
+        <v>51.16513478600647</v>
       </c>
       <c r="N12" t="n">
-        <v>75.7542044161748</v>
+        <v>53.13983068800738</v>
       </c>
       <c r="O12" t="n">
-        <v>77.72890031817573</v>
+        <v>77.72890031817553</v>
       </c>
       <c r="P12" t="n">
-        <v>99.34977628350794</v>
+        <v>99.34977628350771</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.26144893918774</v>
+        <v>99.34977628350771</v>
       </c>
       <c r="R12" t="n">
-        <v>49.17312159486755</v>
+        <v>99.34977628350771</v>
       </c>
       <c r="S12" t="n">
-        <v>24.08479425054736</v>
+        <v>99.34977628350771</v>
       </c>
       <c r="T12" t="n">
-        <v>1.986995525670159</v>
+        <v>99.34977628350771</v>
       </c>
       <c r="U12" t="n">
-        <v>1.986995525670159</v>
+        <v>99.34977628350771</v>
       </c>
       <c r="V12" t="n">
-        <v>1.986995525670159</v>
+        <v>99.34977628350771</v>
       </c>
       <c r="W12" t="n">
-        <v>1.986995525670159</v>
+        <v>99.34977628350771</v>
       </c>
       <c r="X12" t="n">
-        <v>1.986995525670159</v>
+        <v>99.34977628350771</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.986995525670159</v>
+        <v>99.34977628350771</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="C13" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="D13" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="E13" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="F13" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="G13" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="H13" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="I13" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="J13" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="K13" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="L13" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="M13" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="N13" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="O13" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="P13" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="R13" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="S13" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="T13" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="U13" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="V13" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="W13" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="X13" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.13234069106866</v>
+        <v>27.07532286999028</v>
       </c>
       <c r="C14" t="n">
-        <v>29.13234069106866</v>
+        <v>27.07532286999028</v>
       </c>
       <c r="D14" t="n">
-        <v>4.044013346748471</v>
+        <v>27.07532286999028</v>
       </c>
       <c r="E14" t="n">
-        <v>4.044013346748471</v>
+        <v>27.07532286999028</v>
       </c>
       <c r="F14" t="n">
-        <v>4.044013346748471</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="G14" t="n">
-        <v>4.044013346748471</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="H14" t="n">
-        <v>4.044013346748471</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="I14" t="n">
-        <v>4.044013346748471</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="J14" t="n">
-        <v>4.044013346748471</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="K14" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="L14" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="M14" t="n">
-        <v>26.57606515583837</v>
+        <v>26.57606515583831</v>
       </c>
       <c r="N14" t="n">
-        <v>51.16513478600659</v>
+        <v>51.16513478600647</v>
       </c>
       <c r="O14" t="n">
-        <v>75.7542044161748</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="P14" t="n">
-        <v>54.22066803538885</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="Q14" t="n">
-        <v>54.22066803538885</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="R14" t="n">
-        <v>54.22066803538885</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="S14" t="n">
-        <v>54.22066803538885</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="T14" t="n">
-        <v>54.22066803538885</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="U14" t="n">
-        <v>54.22066803538885</v>
+        <v>50.6658770718545</v>
       </c>
       <c r="V14" t="n">
-        <v>54.22066803538885</v>
+        <v>27.07532286999028</v>
       </c>
       <c r="W14" t="n">
-        <v>54.22066803538885</v>
+        <v>27.07532286999028</v>
       </c>
       <c r="X14" t="n">
-        <v>54.22066803538885</v>
+        <v>27.07532286999028</v>
       </c>
       <c r="Y14" t="n">
-        <v>54.22066803538885</v>
+        <v>27.07532286999028</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.986995525670159</v>
+        <v>52.16365021431042</v>
       </c>
       <c r="C15" t="n">
-        <v>1.986995525670159</v>
+        <v>52.16365021431042</v>
       </c>
       <c r="D15" t="n">
-        <v>1.986995525670159</v>
+        <v>52.16365021431042</v>
       </c>
       <c r="E15" t="n">
-        <v>1.986995525670159</v>
+        <v>52.16365021431042</v>
       </c>
       <c r="F15" t="n">
-        <v>1.986995525670159</v>
+        <v>27.07532286999028</v>
       </c>
       <c r="G15" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="H15" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="I15" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="J15" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="K15" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="L15" t="n">
-        <v>25.5825673930033</v>
+        <v>26.57606515583831</v>
       </c>
       <c r="M15" t="n">
-        <v>50.17163702317151</v>
+        <v>51.16513478600647</v>
       </c>
       <c r="N15" t="n">
-        <v>74.76070665333972</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="O15" t="n">
-        <v>99.34977628350794</v>
+        <v>99.34977628350771</v>
       </c>
       <c r="P15" t="n">
-        <v>99.34977628350794</v>
+        <v>99.34977628350771</v>
       </c>
       <c r="Q15" t="n">
-        <v>99.34977628350794</v>
+        <v>99.34977628350771</v>
       </c>
       <c r="R15" t="n">
-        <v>99.34977628350794</v>
+        <v>99.34977628350771</v>
       </c>
       <c r="S15" t="n">
-        <v>99.34977628350794</v>
+        <v>77.25197755863054</v>
       </c>
       <c r="T15" t="n">
-        <v>74.26144893918774</v>
+        <v>77.25197755863054</v>
       </c>
       <c r="U15" t="n">
-        <v>74.26144893918774</v>
+        <v>77.25197755863054</v>
       </c>
       <c r="V15" t="n">
-        <v>49.17312159486755</v>
+        <v>77.25197755863054</v>
       </c>
       <c r="W15" t="n">
-        <v>24.08479425054736</v>
+        <v>52.16365021431042</v>
       </c>
       <c r="X15" t="n">
-        <v>1.986995525670159</v>
+        <v>52.16365021431042</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.986995525670159</v>
+        <v>52.16365021431042</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="C16" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="D16" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="E16" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="F16" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="G16" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="H16" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="I16" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="J16" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="K16" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="L16" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="M16" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="N16" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="O16" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="P16" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="R16" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="S16" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="T16" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="U16" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="V16" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="W16" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="X16" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50.66587707185461</v>
+        <v>27.07532286999028</v>
       </c>
       <c r="C17" t="n">
-        <v>50.66587707185461</v>
+        <v>27.07532286999028</v>
       </c>
       <c r="D17" t="n">
-        <v>50.66587707185461</v>
+        <v>27.07532286999028</v>
       </c>
       <c r="E17" t="n">
-        <v>50.66587707185461</v>
+        <v>27.07532286999028</v>
       </c>
       <c r="F17" t="n">
-        <v>50.66587707185461</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="G17" t="n">
-        <v>27.07532286999035</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="H17" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="I17" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="J17" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="K17" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="L17" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="M17" t="n">
-        <v>26.57606515583837</v>
+        <v>26.57606515583831</v>
       </c>
       <c r="N17" t="n">
-        <v>51.16513478600659</v>
+        <v>51.16513478600647</v>
       </c>
       <c r="O17" t="n">
-        <v>75.7542044161748</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="P17" t="n">
-        <v>75.7542044161748</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="Q17" t="n">
-        <v>50.66587707185461</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="R17" t="n">
-        <v>50.66587707185461</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="S17" t="n">
-        <v>50.66587707185461</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="T17" t="n">
-        <v>50.66587707185461</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="U17" t="n">
-        <v>50.66587707185461</v>
+        <v>50.6658770718545</v>
       </c>
       <c r="V17" t="n">
-        <v>50.66587707185461</v>
+        <v>27.07532286999028</v>
       </c>
       <c r="W17" t="n">
-        <v>50.66587707185461</v>
+        <v>27.07532286999028</v>
       </c>
       <c r="X17" t="n">
-        <v>50.66587707185461</v>
+        <v>27.07532286999028</v>
       </c>
       <c r="Y17" t="n">
-        <v>50.66587707185461</v>
+        <v>27.07532286999028</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.986995525670159</v>
+        <v>49.17312159486744</v>
       </c>
       <c r="C18" t="n">
-        <v>1.986995525670159</v>
+        <v>49.17312159486744</v>
       </c>
       <c r="D18" t="n">
-        <v>1.986995525670159</v>
+        <v>49.17312159486744</v>
       </c>
       <c r="E18" t="n">
-        <v>1.986995525670159</v>
+        <v>49.17312159486744</v>
       </c>
       <c r="F18" t="n">
-        <v>1.986995525670159</v>
+        <v>49.17312159486744</v>
       </c>
       <c r="G18" t="n">
-        <v>1.986995525670159</v>
+        <v>24.08479425054731</v>
       </c>
       <c r="H18" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="I18" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="J18" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="K18" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="L18" t="n">
-        <v>26.57606515583837</v>
+        <v>26.57606515583831</v>
       </c>
       <c r="M18" t="n">
-        <v>51.16513478600659</v>
+        <v>51.16513478600647</v>
       </c>
       <c r="N18" t="n">
-        <v>75.7542044161748</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="O18" t="n">
-        <v>99.34977628350794</v>
+        <v>99.34977628350771</v>
       </c>
       <c r="P18" t="n">
-        <v>99.34977628350794</v>
+        <v>99.34977628350771</v>
       </c>
       <c r="Q18" t="n">
-        <v>77.25197755863073</v>
+        <v>74.26144893918757</v>
       </c>
       <c r="R18" t="n">
-        <v>52.16365021431054</v>
+        <v>74.26144893918757</v>
       </c>
       <c r="S18" t="n">
-        <v>52.16365021431054</v>
+        <v>49.17312159486744</v>
       </c>
       <c r="T18" t="n">
-        <v>52.16365021431054</v>
+        <v>49.17312159486744</v>
       </c>
       <c r="U18" t="n">
-        <v>52.16365021431054</v>
+        <v>49.17312159486744</v>
       </c>
       <c r="V18" t="n">
-        <v>52.16365021431054</v>
+        <v>49.17312159486744</v>
       </c>
       <c r="W18" t="n">
-        <v>27.07532286999035</v>
+        <v>49.17312159486744</v>
       </c>
       <c r="X18" t="n">
-        <v>1.986995525670159</v>
+        <v>49.17312159486744</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.986995525670159</v>
+        <v>49.17312159486744</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="C19" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="D19" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="E19" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="F19" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="G19" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="H19" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="I19" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="J19" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="K19" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="L19" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="M19" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="N19" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="O19" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="P19" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="R19" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="S19" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="T19" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="U19" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="V19" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="W19" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="X19" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.986995525670162</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="C20" t="n">
-        <v>1.986995525670162</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="D20" t="n">
-        <v>1.986995525670162</v>
+        <v>52.16365021431042</v>
       </c>
       <c r="E20" t="n">
-        <v>1.986995525670162</v>
+        <v>27.07532286999028</v>
       </c>
       <c r="F20" t="n">
-        <v>1.986995525670162</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="G20" t="n">
-        <v>1.986995525670162</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="H20" t="n">
-        <v>1.986995525670162</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="I20" t="n">
-        <v>1.986995525670162</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="J20" t="n">
-        <v>1.986995525670162</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="K20" t="n">
-        <v>1.986995525670162</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="L20" t="n">
-        <v>1.986995525670162</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="M20" t="n">
-        <v>26.57606515583841</v>
+        <v>26.57606515583831</v>
       </c>
       <c r="N20" t="n">
-        <v>51.16513478600666</v>
+        <v>51.16513478600647</v>
       </c>
       <c r="O20" t="n">
-        <v>75.75420441617487</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="P20" t="n">
-        <v>75.75420441617487</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="Q20" t="n">
-        <v>50.66587707185465</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="R20" t="n">
-        <v>25.57754972753443</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="S20" t="n">
-        <v>1.986995525670162</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="T20" t="n">
-        <v>1.986995525670162</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="U20" t="n">
-        <v>1.986995525670162</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="V20" t="n">
-        <v>1.986995525670162</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="W20" t="n">
-        <v>1.986995525670162</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="X20" t="n">
-        <v>1.986995525670162</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.986995525670162</v>
+        <v>75.75420441617463</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>99.34977628350808</v>
+        <v>52.16365021431042</v>
       </c>
       <c r="C21" t="n">
-        <v>99.34977628350808</v>
+        <v>52.16365021431042</v>
       </c>
       <c r="D21" t="n">
-        <v>74.26144893918786</v>
+        <v>27.07532286999028</v>
       </c>
       <c r="E21" t="n">
-        <v>49.17312159486764</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="F21" t="n">
-        <v>24.08479425054741</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="G21" t="n">
-        <v>1.986995525670162</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="H21" t="n">
-        <v>1.986995525670162</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="I21" t="n">
-        <v>1.986995525670162</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="J21" t="n">
-        <v>1.986995525670162</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="K21" t="n">
-        <v>1.986995525670162</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="L21" t="n">
-        <v>3.96169142767112</v>
+        <v>26.57606515583831</v>
       </c>
       <c r="M21" t="n">
-        <v>28.55076105783937</v>
+        <v>51.16513478600647</v>
       </c>
       <c r="N21" t="n">
-        <v>53.13983068800762</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="O21" t="n">
-        <v>77.72890031817587</v>
+        <v>77.72890031817553</v>
       </c>
       <c r="P21" t="n">
-        <v>99.34977628350808</v>
+        <v>99.34977628350771</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.34977628350808</v>
+        <v>77.25197755863054</v>
       </c>
       <c r="R21" t="n">
-        <v>99.34977628350808</v>
+        <v>77.25197755863054</v>
       </c>
       <c r="S21" t="n">
-        <v>99.34977628350808</v>
+        <v>77.25197755863054</v>
       </c>
       <c r="T21" t="n">
-        <v>99.34977628350808</v>
+        <v>77.25197755863054</v>
       </c>
       <c r="U21" t="n">
-        <v>99.34977628350808</v>
+        <v>77.25197755863054</v>
       </c>
       <c r="V21" t="n">
-        <v>99.34977628350808</v>
+        <v>77.25197755863054</v>
       </c>
       <c r="W21" t="n">
-        <v>99.34977628350808</v>
+        <v>77.25197755863054</v>
       </c>
       <c r="X21" t="n">
-        <v>99.34977628350808</v>
+        <v>77.25197755863054</v>
       </c>
       <c r="Y21" t="n">
-        <v>99.34977628350808</v>
+        <v>52.16365021431042</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>99.34977628350808</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="C22" t="n">
-        <v>99.34977628350808</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="D22" t="n">
-        <v>99.34977628350808</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="E22" t="n">
-        <v>99.34977628350808</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="F22" t="n">
-        <v>99.34977628350808</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="G22" t="n">
-        <v>99.34977628350808</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="H22" t="n">
-        <v>99.34977628350808</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="I22" t="n">
-        <v>99.34977628350808</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="J22" t="n">
-        <v>99.34977628350808</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="K22" t="n">
-        <v>99.34977628350808</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="L22" t="n">
-        <v>99.34977628350808</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="M22" t="n">
-        <v>99.34977628350808</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="N22" t="n">
-        <v>99.34977628350808</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="O22" t="n">
-        <v>99.34977628350808</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="P22" t="n">
-        <v>99.34977628350808</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="Q22" t="n">
-        <v>99.34977628350808</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="R22" t="n">
-        <v>99.34977628350808</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="S22" t="n">
-        <v>99.34977628350808</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="T22" t="n">
-        <v>99.34977628350808</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="U22" t="n">
-        <v>99.34977628350808</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="V22" t="n">
-        <v>99.34977628350808</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="W22" t="n">
-        <v>99.34977628350808</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="X22" t="n">
-        <v>99.34977628350808</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="Y22" t="n">
-        <v>99.34977628350808</v>
+        <v>1.986995525670154</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>26.07812553277253</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="C23" t="n">
-        <v>26.07812553277253</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="D23" t="n">
-        <v>26.07812553277253</v>
+        <v>78.57982316484504</v>
       </c>
       <c r="E23" t="n">
-        <v>26.07812553277253</v>
+        <v>40.78652614443092</v>
       </c>
       <c r="F23" t="n">
-        <v>26.07812553277253</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="G23" t="n">
-        <v>26.07812553277253</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="H23" t="n">
-        <v>26.07812553277253</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="I23" t="n">
-        <v>26.07812553277253</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="J23" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="K23" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="L23" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="M23" t="n">
-        <v>40.03443953372479</v>
+        <v>40.03443953372467</v>
       </c>
       <c r="N23" t="n">
-        <v>77.07564994343278</v>
+        <v>77.07564994343255</v>
       </c>
       <c r="O23" t="n">
-        <v>101.664719573601</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="P23" t="n">
-        <v>101.664719573601</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="Q23" t="n">
-        <v>101.664719573601</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="R23" t="n">
-        <v>101.664719573601</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="S23" t="n">
-        <v>101.664719573601</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="T23" t="n">
-        <v>101.664719573601</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="U23" t="n">
-        <v>101.664719573601</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="V23" t="n">
-        <v>101.664719573601</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="W23" t="n">
-        <v>63.87142255318676</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="X23" t="n">
-        <v>26.07812553277253</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="Y23" t="n">
-        <v>26.07812553277253</v>
+        <v>101.6647195736007</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>36.28156513959766</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="C24" t="n">
-        <v>36.28156513959766</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="D24" t="n">
-        <v>36.28156513959766</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="E24" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="F24" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="G24" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="H24" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="I24" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="J24" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="K24" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="L24" t="n">
-        <v>40.03443953372479</v>
+        <v>40.03443953372467</v>
       </c>
       <c r="M24" t="n">
-        <v>77.07564994343278</v>
+        <v>77.07564994343255</v>
       </c>
       <c r="N24" t="n">
-        <v>114.1168603531408</v>
+        <v>114.1168603531404</v>
       </c>
       <c r="O24" t="n">
-        <v>128.0405802355081</v>
+        <v>128.0405802355077</v>
       </c>
       <c r="P24" t="n">
-        <v>149.6614562008403</v>
+        <v>149.6614562008399</v>
       </c>
       <c r="Q24" t="n">
-        <v>149.6614562008403</v>
+        <v>149.6614562008399</v>
       </c>
       <c r="R24" t="n">
-        <v>149.6614562008403</v>
+        <v>111.8681591804258</v>
       </c>
       <c r="S24" t="n">
-        <v>149.6614562008403</v>
+        <v>74.07486216001166</v>
       </c>
       <c r="T24" t="n">
-        <v>111.8681591804261</v>
+        <v>74.07486216001166</v>
       </c>
       <c r="U24" t="n">
-        <v>111.8681591804261</v>
+        <v>74.07486216001166</v>
       </c>
       <c r="V24" t="n">
-        <v>111.8681591804261</v>
+        <v>74.07486216001166</v>
       </c>
       <c r="W24" t="n">
-        <v>74.07486216001189</v>
+        <v>40.78652614443092</v>
       </c>
       <c r="X24" t="n">
-        <v>36.28156513959766</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="Y24" t="n">
-        <v>36.28156513959766</v>
+        <v>2.993229124016798</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="C25" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="D25" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="E25" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="F25" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="G25" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="H25" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="I25" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="J25" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="K25" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="L25" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="M25" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="N25" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="O25" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="P25" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="R25" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="S25" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="T25" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="U25" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="V25" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="W25" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="X25" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>42.3378861724008</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="C26" t="n">
-        <v>42.3378861724008</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="D26" t="n">
-        <v>42.3378861724008</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="E26" t="n">
-        <v>42.3378861724008</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="F26" t="n">
-        <v>42.24955226247394</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="G26" t="n">
-        <v>42.24955226247394</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="H26" t="n">
-        <v>42.24955226247394</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="I26" t="n">
-        <v>42.24955226247394</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="J26" t="n">
-        <v>42.24955226247394</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="K26" t="n">
-        <v>4.456255242059711</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="L26" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="M26" t="n">
-        <v>40.03443953372479</v>
+        <v>40.03443953372467</v>
       </c>
       <c r="N26" t="n">
-        <v>77.07564994343278</v>
+        <v>77.07564994343255</v>
       </c>
       <c r="O26" t="n">
-        <v>101.664719573601</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="P26" t="n">
-        <v>80.13118319281503</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="Q26" t="n">
-        <v>80.13118319281503</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="R26" t="n">
-        <v>80.13118319281503</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="S26" t="n">
-        <v>80.13118319281503</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="T26" t="n">
-        <v>80.13118319281503</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="U26" t="n">
-        <v>42.3378861724008</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="V26" t="n">
-        <v>42.3378861724008</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="W26" t="n">
-        <v>42.3378861724008</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="X26" t="n">
-        <v>42.3378861724008</v>
+        <v>63.87142255318659</v>
       </c>
       <c r="Y26" t="n">
-        <v>42.3378861724008</v>
+        <v>26.07812553277248</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>111.8681591804261</v>
+        <v>78.57982316484504</v>
       </c>
       <c r="C27" t="n">
-        <v>111.8681591804261</v>
+        <v>78.57982316484504</v>
       </c>
       <c r="D27" t="n">
-        <v>111.8681591804261</v>
+        <v>78.57982316484504</v>
       </c>
       <c r="E27" t="n">
-        <v>111.8681591804261</v>
+        <v>78.57982316484504</v>
       </c>
       <c r="F27" t="n">
-        <v>111.8681591804261</v>
+        <v>40.78652614443092</v>
       </c>
       <c r="G27" t="n">
-        <v>111.8681591804261</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="H27" t="n">
-        <v>90.17739001904926</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="I27" t="n">
-        <v>52.38409299863503</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="J27" t="n">
-        <v>14.5907959782208</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="K27" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="L27" t="n">
-        <v>40.03443953372479</v>
+        <v>16.9169490063841</v>
       </c>
       <c r="M27" t="n">
-        <v>77.07564994343278</v>
+        <v>53.95815941609197</v>
       </c>
       <c r="N27" t="n">
-        <v>114.1168603531408</v>
+        <v>90.99936982579985</v>
       </c>
       <c r="O27" t="n">
-        <v>128.0405802355081</v>
+        <v>128.0405802355077</v>
       </c>
       <c r="P27" t="n">
-        <v>149.6614562008403</v>
+        <v>149.6614562008399</v>
       </c>
       <c r="Q27" t="n">
-        <v>149.6614562008403</v>
+        <v>111.8681591804258</v>
       </c>
       <c r="R27" t="n">
-        <v>149.6614562008403</v>
+        <v>111.8681591804258</v>
       </c>
       <c r="S27" t="n">
-        <v>149.6614562008403</v>
+        <v>78.57982316484504</v>
       </c>
       <c r="T27" t="n">
-        <v>149.6614562008403</v>
+        <v>78.57982316484504</v>
       </c>
       <c r="U27" t="n">
-        <v>149.6614562008403</v>
+        <v>78.57982316484504</v>
       </c>
       <c r="V27" t="n">
-        <v>149.6614562008403</v>
+        <v>78.57982316484504</v>
       </c>
       <c r="W27" t="n">
-        <v>149.6614562008403</v>
+        <v>78.57982316484504</v>
       </c>
       <c r="X27" t="n">
-        <v>111.8681591804261</v>
+        <v>78.57982316484504</v>
       </c>
       <c r="Y27" t="n">
-        <v>111.8681591804261</v>
+        <v>78.57982316484504</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="C28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="D28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="E28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="F28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="G28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="H28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="I28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="J28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="K28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="L28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="M28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="N28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="O28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="P28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="Q28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="R28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="S28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="T28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="U28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="V28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="W28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="X28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="Y28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.993229124016807</v>
+        <v>42.24955226247388</v>
       </c>
       <c r="C29" t="n">
-        <v>2.993229124016807</v>
+        <v>4.45625524205976</v>
       </c>
       <c r="D29" t="n">
-        <v>2.993229124016807</v>
+        <v>4.45625524205976</v>
       </c>
       <c r="E29" t="n">
-        <v>2.993229124016807</v>
+        <v>4.45625524205976</v>
       </c>
       <c r="F29" t="n">
-        <v>2.993229124016807</v>
+        <v>4.45625524205976</v>
       </c>
       <c r="G29" t="n">
-        <v>2.993229124016807</v>
+        <v>4.45625524205976</v>
       </c>
       <c r="H29" t="n">
-        <v>2.993229124016807</v>
+        <v>4.45625524205976</v>
       </c>
       <c r="I29" t="n">
-        <v>2.993229124016807</v>
+        <v>4.45625524205976</v>
       </c>
       <c r="J29" t="n">
-        <v>2.993229124016807</v>
+        <v>4.45625524205976</v>
       </c>
       <c r="K29" t="n">
-        <v>2.993229124016807</v>
+        <v>4.45625524205976</v>
       </c>
       <c r="L29" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="M29" t="n">
-        <v>40.03443953372479</v>
+        <v>40.03443953372467</v>
       </c>
       <c r="N29" t="n">
-        <v>77.07564994343278</v>
+        <v>77.07564994343255</v>
       </c>
       <c r="O29" t="n">
-        <v>101.664719573601</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="P29" t="n">
-        <v>101.664719573601</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="Q29" t="n">
-        <v>101.664719573601</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="R29" t="n">
-        <v>101.664719573601</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="S29" t="n">
-        <v>63.87142255318676</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="T29" t="n">
-        <v>26.07812553277253</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="U29" t="n">
-        <v>26.07812553277253</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="V29" t="n">
-        <v>26.07812553277253</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="W29" t="n">
-        <v>26.07812553277253</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="X29" t="n">
-        <v>2.993229124016807</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="Y29" t="n">
-        <v>2.993229124016807</v>
+        <v>80.042849282888</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="C30" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="D30" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="E30" t="n">
-        <v>116.3731201852595</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="F30" t="n">
-        <v>116.3731201852595</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="G30" t="n">
-        <v>116.3731201852595</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="H30" t="n">
-        <v>78.57982316484527</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="I30" t="n">
-        <v>40.78652614443104</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="J30" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="K30" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="L30" t="n">
-        <v>40.03443953372479</v>
+        <v>40.03443953372467</v>
       </c>
       <c r="M30" t="n">
-        <v>77.07564994343278</v>
+        <v>77.07564994343255</v>
       </c>
       <c r="N30" t="n">
-        <v>114.1168603531408</v>
+        <v>112.620245791132</v>
       </c>
       <c r="O30" t="n">
-        <v>128.0405802355081</v>
+        <v>149.6614562008399</v>
       </c>
       <c r="P30" t="n">
-        <v>149.6614562008403</v>
+        <v>149.6614562008399</v>
       </c>
       <c r="Q30" t="n">
-        <v>149.6614562008403</v>
+        <v>111.8681591804258</v>
       </c>
       <c r="R30" t="n">
-        <v>149.6614562008403</v>
+        <v>111.8681591804258</v>
       </c>
       <c r="S30" t="n">
-        <v>149.6614562008403</v>
+        <v>111.8681591804258</v>
       </c>
       <c r="T30" t="n">
-        <v>149.6614562008403</v>
+        <v>111.8681591804258</v>
       </c>
       <c r="U30" t="n">
-        <v>149.6614562008403</v>
+        <v>74.07486216001166</v>
       </c>
       <c r="V30" t="n">
-        <v>149.6614562008403</v>
+        <v>36.28156513959755</v>
       </c>
       <c r="W30" t="n">
-        <v>149.6614562008403</v>
+        <v>36.28156513959755</v>
       </c>
       <c r="X30" t="n">
-        <v>149.6614562008403</v>
+        <v>36.28156513959755</v>
       </c>
       <c r="Y30" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="C31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="D31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="E31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="F31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="G31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="H31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="I31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="J31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="K31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="L31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="M31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="N31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="O31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="P31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="Q31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="R31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="S31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="T31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="U31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="V31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="W31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="X31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="Y31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016798</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>63.87142255318676</v>
+        <v>78.57982316484504</v>
       </c>
       <c r="C32" t="n">
-        <v>63.87142255318676</v>
+        <v>78.57982316484504</v>
       </c>
       <c r="D32" t="n">
-        <v>63.87142255318676</v>
+        <v>40.78652614443092</v>
       </c>
       <c r="E32" t="n">
-        <v>40.78652614443104</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="F32" t="n">
-        <v>40.78652614443104</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="G32" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="H32" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="I32" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="J32" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="K32" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="L32" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="M32" t="n">
-        <v>40.03443953372479</v>
+        <v>40.03443953372467</v>
       </c>
       <c r="N32" t="n">
-        <v>77.07564994343278</v>
+        <v>77.07564994343255</v>
       </c>
       <c r="O32" t="n">
-        <v>101.664719573601</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="P32" t="n">
-        <v>101.664719573601</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="Q32" t="n">
-        <v>101.664719573601</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="R32" t="n">
-        <v>101.664719573601</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="S32" t="n">
-        <v>101.664719573601</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="T32" t="n">
-        <v>101.664719573601</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="U32" t="n">
-        <v>63.87142255318676</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="V32" t="n">
-        <v>63.87142255318676</v>
+        <v>101.6647195736007</v>
       </c>
       <c r="W32" t="n">
-        <v>63.87142255318676</v>
+        <v>78.57982316484504</v>
       </c>
       <c r="X32" t="n">
-        <v>63.87142255318676</v>
+        <v>78.57982316484504</v>
       </c>
       <c r="Y32" t="n">
-        <v>63.87142255318676</v>
+        <v>78.57982316484504</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="C33" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="D33" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="E33" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="F33" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="G33" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="H33" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="I33" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="J33" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="K33" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="L33" t="n">
-        <v>16.91694900638419</v>
+        <v>16.9169490063841</v>
       </c>
       <c r="M33" t="n">
-        <v>53.95815941609217</v>
+        <v>53.95815941609197</v>
       </c>
       <c r="N33" t="n">
-        <v>90.99936982580016</v>
+        <v>90.99936982579985</v>
       </c>
       <c r="O33" t="n">
-        <v>128.0405802355081</v>
+        <v>128.0405802355077</v>
       </c>
       <c r="P33" t="n">
-        <v>149.6614562008403</v>
+        <v>149.6614562008399</v>
       </c>
       <c r="Q33" t="n">
-        <v>149.6614562008403</v>
+        <v>149.6614562008399</v>
       </c>
       <c r="R33" t="n">
-        <v>149.6614562008403</v>
+        <v>111.8681591804258</v>
       </c>
       <c r="S33" t="n">
-        <v>149.6614562008403</v>
+        <v>74.07486216001166</v>
       </c>
       <c r="T33" t="n">
-        <v>149.6614562008403</v>
+        <v>36.28156513959755</v>
       </c>
       <c r="U33" t="n">
-        <v>111.8681591804261</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="V33" t="n">
-        <v>74.07486216001189</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="W33" t="n">
-        <v>36.28156513959766</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="X33" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="Y33" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="C34" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="D34" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="E34" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="F34" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="G34" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="H34" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="I34" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="J34" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="K34" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="L34" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="M34" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="N34" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="O34" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="P34" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="R34" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="S34" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="T34" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="U34" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="V34" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="W34" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="X34" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.993229124016807</v>
+        <v>2.993229124016798</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.986995525670159</v>
+        <v>27.0753228699901</v>
       </c>
       <c r="C35" t="n">
-        <v>1.986995525670159</v>
+        <v>27.0753228699901</v>
       </c>
       <c r="D35" t="n">
-        <v>1.986995525670159</v>
+        <v>27.0753228699901</v>
       </c>
       <c r="E35" t="n">
-        <v>1.986995525670159</v>
+        <v>27.0753228699901</v>
       </c>
       <c r="F35" t="n">
-        <v>1.986995525670159</v>
+        <v>27.0753228699901</v>
       </c>
       <c r="G35" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="H35" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="I35" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="J35" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="K35" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="L35" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="M35" t="n">
-        <v>26.57606515583837</v>
+        <v>26.57606515583813</v>
       </c>
       <c r="N35" t="n">
-        <v>51.16513478600659</v>
+        <v>51.16513478600612</v>
       </c>
       <c r="O35" t="n">
-        <v>75.7542044161748</v>
+        <v>75.75420441617428</v>
       </c>
       <c r="P35" t="n">
-        <v>75.7542044161748</v>
+        <v>75.75420441617428</v>
       </c>
       <c r="Q35" t="n">
-        <v>75.7542044161748</v>
+        <v>75.75420441617428</v>
       </c>
       <c r="R35" t="n">
-        <v>75.7542044161748</v>
+        <v>75.75420441617428</v>
       </c>
       <c r="S35" t="n">
-        <v>75.7542044161748</v>
+        <v>75.75420441617428</v>
       </c>
       <c r="T35" t="n">
-        <v>75.7542044161748</v>
+        <v>75.75420441617428</v>
       </c>
       <c r="U35" t="n">
-        <v>75.7542044161748</v>
+        <v>52.16365021431005</v>
       </c>
       <c r="V35" t="n">
-        <v>75.7542044161748</v>
+        <v>27.0753228699901</v>
       </c>
       <c r="W35" t="n">
-        <v>50.66587707185461</v>
+        <v>27.0753228699901</v>
       </c>
       <c r="X35" t="n">
-        <v>25.57754972753442</v>
+        <v>27.0753228699901</v>
       </c>
       <c r="Y35" t="n">
-        <v>25.57754972753442</v>
+        <v>27.0753228699901</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="C36" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="D36" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="E36" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="F36" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="G36" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="H36" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="I36" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="J36" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="K36" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="L36" t="n">
-        <v>26.57606515583837</v>
+        <v>3.961691427670893</v>
       </c>
       <c r="M36" t="n">
-        <v>51.16513478600659</v>
+        <v>28.55076105783888</v>
       </c>
       <c r="N36" t="n">
-        <v>53.13983068800752</v>
+        <v>53.13983068800687</v>
       </c>
       <c r="O36" t="n">
-        <v>77.72890031817573</v>
+        <v>77.72890031817485</v>
       </c>
       <c r="P36" t="n">
-        <v>99.34977628350794</v>
+        <v>99.34977628350703</v>
       </c>
       <c r="Q36" t="n">
-        <v>99.34977628350794</v>
+        <v>74.26144893918706</v>
       </c>
       <c r="R36" t="n">
-        <v>99.34977628350794</v>
+        <v>74.26144893918706</v>
       </c>
       <c r="S36" t="n">
-        <v>99.34977628350794</v>
+        <v>74.26144893918706</v>
       </c>
       <c r="T36" t="n">
-        <v>99.34977628350794</v>
+        <v>52.16365021431005</v>
       </c>
       <c r="U36" t="n">
-        <v>99.34977628350794</v>
+        <v>27.0753228699901</v>
       </c>
       <c r="V36" t="n">
-        <v>77.25197755863073</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="W36" t="n">
-        <v>52.16365021431054</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="X36" t="n">
-        <v>27.07532286999035</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670141</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="C37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="D37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="E37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="F37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="G37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="H37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="I37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="J37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="K37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="L37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="M37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="N37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="O37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="P37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="Q37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="R37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="S37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="T37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="U37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="V37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="W37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="X37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670141</v>
       </c>
       <c r="Y37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670141</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>27.07532286999035</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="C38" t="n">
-        <v>27.07532286999035</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="D38" t="n">
-        <v>27.07532286999035</v>
+        <v>52.16365021431042</v>
       </c>
       <c r="E38" t="n">
-        <v>27.07532286999035</v>
+        <v>52.16365021431042</v>
       </c>
       <c r="F38" t="n">
-        <v>27.07532286999035</v>
+        <v>27.07532286999028</v>
       </c>
       <c r="G38" t="n">
-        <v>27.07532286999035</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="H38" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="I38" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="J38" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="K38" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="L38" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="M38" t="n">
-        <v>26.57606515583837</v>
+        <v>26.57606515583831</v>
       </c>
       <c r="N38" t="n">
-        <v>51.16513478600659</v>
+        <v>51.16513478600647</v>
       </c>
       <c r="O38" t="n">
-        <v>75.7542044161748</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="P38" t="n">
-        <v>54.22066803538885</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="Q38" t="n">
-        <v>54.22066803538885</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="R38" t="n">
-        <v>54.22066803538885</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="S38" t="n">
-        <v>54.22066803538885</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="T38" t="n">
-        <v>54.22066803538885</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="U38" t="n">
-        <v>54.22066803538885</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="V38" t="n">
-        <v>29.13234069106866</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="W38" t="n">
-        <v>29.13234069106866</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="X38" t="n">
-        <v>27.07532286999035</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="Y38" t="n">
-        <v>27.07532286999035</v>
+        <v>75.75420441617463</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.986995525670159</v>
+        <v>24.08479425054731</v>
       </c>
       <c r="C39" t="n">
-        <v>1.986995525670159</v>
+        <v>24.08479425054731</v>
       </c>
       <c r="D39" t="n">
-        <v>1.986995525670159</v>
+        <v>24.08479425054731</v>
       </c>
       <c r="E39" t="n">
-        <v>1.986995525670159</v>
+        <v>24.08479425054731</v>
       </c>
       <c r="F39" t="n">
-        <v>1.986995525670159</v>
+        <v>24.08479425054731</v>
       </c>
       <c r="G39" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="H39" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="I39" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="J39" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="K39" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="L39" t="n">
-        <v>3.961691427671092</v>
+        <v>3.961691427671063</v>
       </c>
       <c r="M39" t="n">
-        <v>28.55076105783931</v>
+        <v>28.55076105783922</v>
       </c>
       <c r="N39" t="n">
-        <v>53.13983068800752</v>
+        <v>53.13983068800738</v>
       </c>
       <c r="O39" t="n">
-        <v>77.72890031817573</v>
+        <v>77.72890031817553</v>
       </c>
       <c r="P39" t="n">
-        <v>99.34977628350794</v>
+        <v>99.34977628350771</v>
       </c>
       <c r="Q39" t="n">
-        <v>99.34977628350794</v>
+        <v>99.34977628350771</v>
       </c>
       <c r="R39" t="n">
-        <v>99.34977628350794</v>
+        <v>99.34977628350771</v>
       </c>
       <c r="S39" t="n">
-        <v>99.34977628350794</v>
+        <v>99.34977628350771</v>
       </c>
       <c r="T39" t="n">
-        <v>74.26144893918774</v>
+        <v>99.34977628350771</v>
       </c>
       <c r="U39" t="n">
-        <v>49.17312159486755</v>
+        <v>74.26144893918757</v>
       </c>
       <c r="V39" t="n">
-        <v>49.17312159486755</v>
+        <v>49.17312159486744</v>
       </c>
       <c r="W39" t="n">
-        <v>27.07532286999035</v>
+        <v>24.08479425054731</v>
       </c>
       <c r="X39" t="n">
-        <v>27.07532286999035</v>
+        <v>24.08479425054731</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.986995525670159</v>
+        <v>24.08479425054731</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="C40" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="D40" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="E40" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="F40" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="G40" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="H40" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="I40" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="J40" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="K40" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="L40" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="M40" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="N40" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="O40" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="P40" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="R40" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="S40" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="T40" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="U40" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="V40" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="W40" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="X40" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>27.07532286999035</v>
+        <v>50.6658770718545</v>
       </c>
       <c r="C41" t="n">
-        <v>27.07532286999035</v>
+        <v>27.07532286999028</v>
       </c>
       <c r="D41" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="E41" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="F41" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="G41" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="H41" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="I41" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="J41" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="K41" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="L41" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="M41" t="n">
-        <v>26.57606515583837</v>
+        <v>26.57606515583831</v>
       </c>
       <c r="N41" t="n">
-        <v>51.16513478600659</v>
+        <v>51.16513478600647</v>
       </c>
       <c r="O41" t="n">
-        <v>75.7542044161748</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="P41" t="n">
-        <v>75.7542044161748</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="Q41" t="n">
-        <v>75.7542044161748</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="R41" t="n">
-        <v>75.7542044161748</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="S41" t="n">
-        <v>75.7542044161748</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="T41" t="n">
-        <v>75.7542044161748</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="U41" t="n">
-        <v>52.16365021431054</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="V41" t="n">
-        <v>27.07532286999035</v>
+        <v>50.6658770718545</v>
       </c>
       <c r="W41" t="n">
-        <v>27.07532286999035</v>
+        <v>50.6658770718545</v>
       </c>
       <c r="X41" t="n">
-        <v>27.07532286999035</v>
+        <v>50.6658770718545</v>
       </c>
       <c r="Y41" t="n">
-        <v>27.07532286999035</v>
+        <v>50.6658770718545</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>99.34977628350794</v>
+        <v>49.17312159486744</v>
       </c>
       <c r="C42" t="n">
-        <v>99.34977628350794</v>
+        <v>49.17312159486744</v>
       </c>
       <c r="D42" t="n">
-        <v>74.26144893918774</v>
+        <v>49.17312159486744</v>
       </c>
       <c r="E42" t="n">
-        <v>74.26144893918774</v>
+        <v>27.07532286999028</v>
       </c>
       <c r="F42" t="n">
-        <v>52.16365021431054</v>
+        <v>27.07532286999028</v>
       </c>
       <c r="G42" t="n">
-        <v>27.07532286999035</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="H42" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="I42" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="J42" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="K42" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="L42" t="n">
-        <v>3.961691427671092</v>
+        <v>26.57606515583831</v>
       </c>
       <c r="M42" t="n">
-        <v>28.55076105783931</v>
+        <v>51.16513478600647</v>
       </c>
       <c r="N42" t="n">
-        <v>53.13983068800752</v>
+        <v>53.13983068800738</v>
       </c>
       <c r="O42" t="n">
-        <v>77.72890031817573</v>
+        <v>77.72890031817553</v>
       </c>
       <c r="P42" t="n">
-        <v>99.34977628350794</v>
+        <v>99.34977628350771</v>
       </c>
       <c r="Q42" t="n">
-        <v>99.34977628350794</v>
+        <v>99.34977628350771</v>
       </c>
       <c r="R42" t="n">
-        <v>99.34977628350794</v>
+        <v>99.34977628350771</v>
       </c>
       <c r="S42" t="n">
-        <v>99.34977628350794</v>
+        <v>74.26144893918757</v>
       </c>
       <c r="T42" t="n">
-        <v>99.34977628350794</v>
+        <v>49.17312159486744</v>
       </c>
       <c r="U42" t="n">
-        <v>99.34977628350794</v>
+        <v>49.17312159486744</v>
       </c>
       <c r="V42" t="n">
-        <v>99.34977628350794</v>
+        <v>49.17312159486744</v>
       </c>
       <c r="W42" t="n">
-        <v>99.34977628350794</v>
+        <v>49.17312159486744</v>
       </c>
       <c r="X42" t="n">
-        <v>99.34977628350794</v>
+        <v>49.17312159486744</v>
       </c>
       <c r="Y42" t="n">
-        <v>99.34977628350794</v>
+        <v>49.17312159486744</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="C43" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="D43" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="E43" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="F43" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="G43" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="H43" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="I43" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="J43" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="K43" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="L43" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="M43" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="N43" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="O43" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="P43" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="R43" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="S43" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="T43" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="U43" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="V43" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="W43" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="X43" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.986995525670159</v>
+        <v>50.6658770718545</v>
       </c>
       <c r="C44" t="n">
-        <v>1.986995525670159</v>
+        <v>50.6658770718545</v>
       </c>
       <c r="D44" t="n">
-        <v>1.986995525670159</v>
+        <v>50.6658770718545</v>
       </c>
       <c r="E44" t="n">
-        <v>1.986995525670159</v>
+        <v>50.6658770718545</v>
       </c>
       <c r="F44" t="n">
-        <v>1.986995525670159</v>
+        <v>27.07532286999028</v>
       </c>
       <c r="G44" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="H44" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="I44" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="J44" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="K44" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="L44" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="M44" t="n">
-        <v>26.57606515583837</v>
+        <v>26.57606515583831</v>
       </c>
       <c r="N44" t="n">
-        <v>51.16513478600659</v>
+        <v>51.16513478600647</v>
       </c>
       <c r="O44" t="n">
-        <v>75.7542044161748</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="P44" t="n">
-        <v>75.7542044161748</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="Q44" t="n">
-        <v>75.7542044161748</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="R44" t="n">
-        <v>75.7542044161748</v>
+        <v>75.75420441617463</v>
       </c>
       <c r="S44" t="n">
-        <v>75.7542044161748</v>
+        <v>50.6658770718545</v>
       </c>
       <c r="T44" t="n">
-        <v>75.7542044161748</v>
+        <v>50.6658770718545</v>
       </c>
       <c r="U44" t="n">
-        <v>50.66587707185461</v>
+        <v>50.6658770718545</v>
       </c>
       <c r="V44" t="n">
-        <v>25.57754972753442</v>
+        <v>50.6658770718545</v>
       </c>
       <c r="W44" t="n">
-        <v>25.57754972753442</v>
+        <v>50.6658770718545</v>
       </c>
       <c r="X44" t="n">
-        <v>25.57754972753442</v>
+        <v>50.6658770718545</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.986995525670159</v>
+        <v>50.6658770718545</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>27.07532286999035</v>
+        <v>99.34977628350771</v>
       </c>
       <c r="C45" t="n">
-        <v>27.07532286999035</v>
+        <v>99.34977628350771</v>
       </c>
       <c r="D45" t="n">
-        <v>27.07532286999035</v>
+        <v>99.34977628350771</v>
       </c>
       <c r="E45" t="n">
-        <v>27.07532286999035</v>
+        <v>74.26144893918757</v>
       </c>
       <c r="F45" t="n">
-        <v>27.07532286999035</v>
+        <v>49.17312159486744</v>
       </c>
       <c r="G45" t="n">
-        <v>27.07532286999035</v>
+        <v>49.17312159486744</v>
       </c>
       <c r="H45" t="n">
-        <v>1.986995525670159</v>
+        <v>24.08479425054731</v>
       </c>
       <c r="I45" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="J45" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="K45" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="L45" t="n">
-        <v>26.57606515583837</v>
+        <v>3.961691427671063</v>
       </c>
       <c r="M45" t="n">
-        <v>51.16513478600659</v>
+        <v>28.55076105783922</v>
       </c>
       <c r="N45" t="n">
-        <v>75.7542044161748</v>
+        <v>53.13983068800738</v>
       </c>
       <c r="O45" t="n">
-        <v>77.72890031817573</v>
+        <v>77.72890031817553</v>
       </c>
       <c r="P45" t="n">
-        <v>99.34977628350794</v>
+        <v>99.34977628350771</v>
       </c>
       <c r="Q45" t="n">
-        <v>74.26144893918774</v>
+        <v>99.34977628350771</v>
       </c>
       <c r="R45" t="n">
-        <v>74.26144893918774</v>
+        <v>99.34977628350771</v>
       </c>
       <c r="S45" t="n">
-        <v>74.26144893918774</v>
+        <v>99.34977628350771</v>
       </c>
       <c r="T45" t="n">
-        <v>74.26144893918774</v>
+        <v>99.34977628350771</v>
       </c>
       <c r="U45" t="n">
-        <v>49.17312159486755</v>
+        <v>99.34977628350771</v>
       </c>
       <c r="V45" t="n">
-        <v>27.07532286999035</v>
+        <v>99.34977628350771</v>
       </c>
       <c r="W45" t="n">
-        <v>27.07532286999035</v>
+        <v>99.34977628350771</v>
       </c>
       <c r="X45" t="n">
-        <v>27.07532286999035</v>
+        <v>99.34977628350771</v>
       </c>
       <c r="Y45" t="n">
-        <v>27.07532286999035</v>
+        <v>99.34977628350771</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="C46" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="D46" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="E46" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="F46" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="G46" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="H46" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="I46" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="J46" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="K46" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="L46" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="M46" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="N46" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="O46" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="P46" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="R46" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="S46" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="T46" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="U46" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="V46" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="W46" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="X46" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.986995525670159</v>
+        <v>1.986995525670154</v>
       </c>
     </row>
   </sheetData>
@@ -22576,19 +22576,19 @@
         <v>94.6755543817487</v>
       </c>
       <c r="L2" t="n">
-        <v>71.97849854454964</v>
+        <v>71.97849854454961</v>
       </c>
       <c r="M2" t="n">
-        <v>41.06296488573625</v>
+        <v>41.06296488573622</v>
       </c>
       <c r="N2" t="n">
         <v>36.04170333287215</v>
       </c>
       <c r="O2" t="n">
-        <v>50.46651067918273</v>
+        <v>50.4665106791827</v>
       </c>
       <c r="P2" t="n">
-        <v>85.58838417758693</v>
+        <v>85.5883841775869</v>
       </c>
       <c r="Q2" t="n">
         <v>123.6377068975464</v>
@@ -22646,13 +22646,13 @@
         <v>120.7755129590769</v>
       </c>
       <c r="I3" t="n">
-        <v>96.24274587248614</v>
+        <v>96.24274587248613</v>
       </c>
       <c r="J3" t="n">
         <v>85.66099395901793</v>
       </c>
       <c r="K3" t="n">
-        <v>50.09627633166346</v>
+        <v>50.09627633166345</v>
       </c>
       <c r="L3" t="n">
         <v>10.27628214666007</v>
@@ -22667,7 +22667,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>23.82458668363597</v>
+        <v>23.82458668363594</v>
       </c>
       <c r="Q3" t="n">
         <v>77.442690741435</v>
@@ -22810,7 +22810,7 @@
         <v>97.38162427947184</v>
       </c>
       <c r="K5" t="n">
-        <v>83.42355640483248</v>
+        <v>83.42355640483251</v>
       </c>
       <c r="L5" t="n">
         <v>58.01940008446331</v>
@@ -22819,7 +22819,7 @@
         <v>25.53077821856496</v>
       </c>
       <c r="N5" t="n">
-        <v>20.25818964702478</v>
+        <v>20.25818964702484</v>
       </c>
       <c r="O5" t="n">
         <v>35.5625862733917</v>
@@ -22907,7 +22907,7 @@
         <v>14.78693852483815</v>
       </c>
       <c r="Q6" t="n">
-        <v>71.40126228781628</v>
+        <v>71.40126228781629</v>
       </c>
       <c r="R6" t="n">
         <v>129.3928979528938</v>
@@ -22974,7 +22974,7 @@
         <v>67.52371566667536</v>
       </c>
       <c r="M7" t="n">
-        <v>67.17903279110968</v>
+        <v>67.17903279110969</v>
       </c>
       <c r="N7" t="n">
         <v>55.89865382137701</v>
@@ -23047,7 +23047,7 @@
         <v>87.74555168308848</v>
       </c>
       <c r="K8" t="n">
-        <v>68.98158147698734</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L8" t="n">
         <v>40.1028531396922</v>
@@ -23059,10 +23059,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>16.43335224433224</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P8" t="n">
-        <v>56.54187083839042</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q8" t="n">
         <v>101.8249850515391</v>
@@ -23208,7 +23208,7 @@
         <v>75.64987151995348</v>
       </c>
       <c r="L10" t="n">
-        <v>59.95218091677093</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M10" t="n">
         <v>59.1959110048432</v>
@@ -23266,28 +23266,28 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E11" t="n">
-        <v>371.4789120616362</v>
+        <v>346.6414679907592</v>
       </c>
       <c r="F11" t="n">
-        <v>403.1992496400135</v>
+        <v>378.3618055691365</v>
       </c>
       <c r="G11" t="n">
-        <v>394.0767261405531</v>
+        <v>417.4313748003987</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7765828585323</v>
+        <v>332.6140269294093</v>
       </c>
       <c r="I11" t="n">
-        <v>161.9367389944617</v>
+        <v>186.7741830653387</v>
       </c>
       <c r="J11" t="n">
-        <v>66.95599007284454</v>
+        <v>66.95599007284457</v>
       </c>
       <c r="K11" t="n">
-        <v>37.82341776112622</v>
+        <v>37.82341776112625</v>
       </c>
       <c r="L11" t="n">
-        <v>1.448395856862476</v>
+        <v>1.448395856862533</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23302,7 +23302,7 @@
         <v>21.31820101697815</v>
       </c>
       <c r="Q11" t="n">
-        <v>75.3734759413816</v>
+        <v>75.37347594138163</v>
       </c>
       <c r="R11" t="n">
         <v>149.0960004006322</v>
@@ -23314,7 +23314,7 @@
         <v>216.3076224445705</v>
       </c>
       <c r="U11" t="n">
-        <v>250.0379976396698</v>
+        <v>226.6833489798242</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23336,19 +23336,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>154.8736736600374</v>
       </c>
       <c r="C12" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>134.3348710057016</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>146.9901277689227</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>133.9859950490514</v>
       </c>
       <c r="G12" t="n">
         <v>147.9919010994193</v>
@@ -23360,7 +23360,7 @@
         <v>88.00944934109815</v>
       </c>
       <c r="J12" t="n">
-        <v>63.0681989803391</v>
+        <v>63.06819898033912</v>
       </c>
       <c r="K12" t="n">
         <v>11.48159118566198</v>
@@ -23381,16 +23381,16 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.08016867698909</v>
+        <v>46.9176127478661</v>
       </c>
       <c r="R12" t="n">
-        <v>92.64676288120813</v>
+        <v>117.4842069520851</v>
       </c>
       <c r="S12" t="n">
-        <v>152.7722121877064</v>
+        <v>177.6096562585834</v>
       </c>
       <c r="T12" t="n">
-        <v>190.0601800528805</v>
+        <v>211.937000790509</v>
       </c>
       <c r="U12" t="n">
         <v>237.1785495379934</v>
@@ -23439,37 +23439,37 @@
         <v>145.8758374158384</v>
       </c>
       <c r="J13" t="n">
-        <v>97.42127736463202</v>
+        <v>97.42127736463203</v>
       </c>
       <c r="K13" t="n">
-        <v>62.88442388222431</v>
+        <v>62.88442388222433</v>
       </c>
       <c r="L13" t="n">
-        <v>43.6168029302746</v>
+        <v>43.61680293027463</v>
       </c>
       <c r="M13" t="n">
-        <v>41.97254530708388</v>
+        <v>41.97254530708391</v>
       </c>
       <c r="N13" t="n">
-        <v>31.29152027045161</v>
+        <v>31.29152027045163</v>
       </c>
       <c r="O13" t="n">
-        <v>53.93507504251049</v>
+        <v>53.9350750425105</v>
       </c>
       <c r="P13" t="n">
-        <v>69.64128415389852</v>
+        <v>69.64128415389854</v>
       </c>
       <c r="Q13" t="n">
         <v>116.718125520665</v>
       </c>
       <c r="R13" t="n">
-        <v>175.0560529919647</v>
+        <v>175.0560529919648</v>
       </c>
       <c r="S13" t="n">
         <v>224.4407168389355</v>
       </c>
       <c r="T13" t="n">
-        <v>221.0652913987814</v>
+        <v>221.0652913987815</v>
       </c>
       <c r="U13" t="n">
         <v>288.6221365381204</v>
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>349.2497963069563</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C14" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D14" t="n">
-        <v>312.9347155713503</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E14" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
-        <v>403.1992496400135</v>
+        <v>378.3618055691365</v>
       </c>
       <c r="G14" t="n">
         <v>417.4313748003987</v>
@@ -23518,13 +23518,13 @@
         <v>186.7741830653387</v>
       </c>
       <c r="J14" t="n">
-        <v>66.95599007284454</v>
+        <v>66.95599007284457</v>
       </c>
       <c r="K14" t="n">
-        <v>35.78697011825867</v>
+        <v>37.82341776112625</v>
       </c>
       <c r="L14" t="n">
-        <v>1.448395856862476</v>
+        <v>1.448395856862533</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23536,10 +23536,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>21.31820101697815</v>
       </c>
       <c r="Q14" t="n">
-        <v>75.37347594138157</v>
+        <v>75.37347594138163</v>
       </c>
       <c r="R14" t="n">
         <v>149.0960004006322</v>
@@ -23551,10 +23551,10 @@
         <v>216.3076224445705</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0379976396698</v>
+        <v>225.2005535687928</v>
       </c>
       <c r="V14" t="n">
-        <v>320.879783609152</v>
+        <v>297.5251349493064</v>
       </c>
       <c r="W14" t="n">
         <v>337.8964638257669</v>
@@ -23585,22 +23585,22 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>133.9859950490514</v>
       </c>
       <c r="G15" t="n">
-        <v>147.9919010994193</v>
+        <v>123.1544570285423</v>
       </c>
       <c r="H15" t="n">
         <v>118.4659946199538</v>
       </c>
       <c r="I15" t="n">
-        <v>88.00944934109813</v>
+        <v>88.00944934109815</v>
       </c>
       <c r="J15" t="n">
-        <v>63.0681989803391</v>
+        <v>63.06819898033912</v>
       </c>
       <c r="K15" t="n">
-        <v>11.48159118566196</v>
+        <v>11.48159118566198</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23618,28 +23618,28 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>46.91761274786606</v>
+        <v>46.9176127478661</v>
       </c>
       <c r="R15" t="n">
         <v>117.4842069520851</v>
       </c>
       <c r="S15" t="n">
-        <v>177.6096562585834</v>
+        <v>155.732835520955</v>
       </c>
       <c r="T15" t="n">
-        <v>187.099556719632</v>
+        <v>211.937000790509</v>
       </c>
       <c r="U15" t="n">
         <v>237.1785495379934</v>
       </c>
       <c r="V15" t="n">
-        <v>215.8114768445253</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W15" t="n">
-        <v>241.8671395061346</v>
+        <v>241.8671395061347</v>
       </c>
       <c r="X15" t="n">
-        <v>195.4360937018422</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y15" t="n">
         <v>223.3842861340256</v>
@@ -23676,37 +23676,37 @@
         <v>145.8758374158384</v>
       </c>
       <c r="J16" t="n">
-        <v>97.421277364632</v>
+        <v>97.42127736463203</v>
       </c>
       <c r="K16" t="n">
-        <v>62.8844238822243</v>
+        <v>62.88442388222433</v>
       </c>
       <c r="L16" t="n">
-        <v>43.61680293027459</v>
+        <v>43.61680293027463</v>
       </c>
       <c r="M16" t="n">
-        <v>41.97254530708386</v>
+        <v>41.97254530708391</v>
       </c>
       <c r="N16" t="n">
-        <v>31.2915202704516</v>
+        <v>31.29152027045163</v>
       </c>
       <c r="O16" t="n">
-        <v>53.93507504251048</v>
+        <v>53.9350750425105</v>
       </c>
       <c r="P16" t="n">
-        <v>69.64128415389851</v>
+        <v>69.64128415389854</v>
       </c>
       <c r="Q16" t="n">
         <v>116.718125520665</v>
       </c>
       <c r="R16" t="n">
-        <v>175.0560529919647</v>
+        <v>175.0560529919648</v>
       </c>
       <c r="S16" t="n">
         <v>224.4407168389355</v>
       </c>
       <c r="T16" t="n">
-        <v>221.0652913987814</v>
+        <v>221.0652913987815</v>
       </c>
       <c r="U16" t="n">
         <v>288.6221365381204</v>
@@ -23743,25 +23743,25 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
-        <v>403.1992496400135</v>
+        <v>378.3618055691365</v>
       </c>
       <c r="G17" t="n">
-        <v>394.0767261405531</v>
+        <v>417.4313748003987</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7765828585323</v>
+        <v>332.6140269294093</v>
       </c>
       <c r="I17" t="n">
         <v>186.7741830653387</v>
       </c>
       <c r="J17" t="n">
-        <v>66.95599007284454</v>
+        <v>66.95599007284457</v>
       </c>
       <c r="K17" t="n">
-        <v>37.82341776112619</v>
+        <v>37.82341776112625</v>
       </c>
       <c r="L17" t="n">
-        <v>1.448395856862476</v>
+        <v>1.448395856862533</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -23773,10 +23773,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>21.31820101697809</v>
+        <v>21.31820101697815</v>
       </c>
       <c r="Q17" t="n">
-        <v>50.53603187050459</v>
+        <v>75.37347594138163</v>
       </c>
       <c r="R17" t="n">
         <v>149.0960004006322</v>
@@ -23788,10 +23788,10 @@
         <v>216.3076224445705</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0379976396698</v>
+        <v>225.2005535687928</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>297.5251349493064</v>
       </c>
       <c r="W17" t="n">
         <v>337.8964638257669</v>
@@ -23825,19 +23825,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>147.9919010994193</v>
+        <v>123.1544570285423</v>
       </c>
       <c r="H18" t="n">
-        <v>118.4659946199538</v>
+        <v>96.58917388232547</v>
       </c>
       <c r="I18" t="n">
-        <v>88.00944934109813</v>
+        <v>88.00944934109815</v>
       </c>
       <c r="J18" t="n">
-        <v>63.0681989803391</v>
+        <v>63.06819898033912</v>
       </c>
       <c r="K18" t="n">
-        <v>11.48159118566196</v>
+        <v>11.48159118566198</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23855,13 +23855,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>25.04079201023762</v>
+        <v>22.08016867698917</v>
       </c>
       <c r="R18" t="n">
-        <v>92.64676288120813</v>
+        <v>117.4842069520851</v>
       </c>
       <c r="S18" t="n">
-        <v>177.6096562585834</v>
+        <v>152.7722121877065</v>
       </c>
       <c r="T18" t="n">
         <v>211.937000790509</v>
@@ -23873,10 +23873,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>241.8671395061346</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>192.4754703685936</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -23913,37 +23913,37 @@
         <v>145.8758374158384</v>
       </c>
       <c r="J19" t="n">
-        <v>97.421277364632</v>
+        <v>97.42127736463203</v>
       </c>
       <c r="K19" t="n">
-        <v>62.8844238822243</v>
+        <v>62.88442388222433</v>
       </c>
       <c r="L19" t="n">
-        <v>43.61680293027459</v>
+        <v>43.61680293027463</v>
       </c>
       <c r="M19" t="n">
-        <v>41.97254530708386</v>
+        <v>41.97254530708391</v>
       </c>
       <c r="N19" t="n">
-        <v>31.2915202704516</v>
+        <v>31.29152027045163</v>
       </c>
       <c r="O19" t="n">
-        <v>53.93507504251048</v>
+        <v>53.9350750425105</v>
       </c>
       <c r="P19" t="n">
-        <v>69.64128415389851</v>
+        <v>69.64128415389854</v>
       </c>
       <c r="Q19" t="n">
         <v>116.718125520665</v>
       </c>
       <c r="R19" t="n">
-        <v>175.0560529919647</v>
+        <v>175.0560529919648</v>
       </c>
       <c r="S19" t="n">
         <v>224.4407168389355</v>
       </c>
       <c r="T19" t="n">
-        <v>221.0652913987814</v>
+        <v>221.0652913987815</v>
       </c>
       <c r="U19" t="n">
         <v>288.6221365381204</v>
@@ -23974,13 +23974,13 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D20" t="n">
-        <v>337.7721596422273</v>
+        <v>314.4175109823817</v>
       </c>
       <c r="E20" t="n">
-        <v>371.4789120616362</v>
+        <v>346.6414679907592</v>
       </c>
       <c r="F20" t="n">
-        <v>403.1992496400135</v>
+        <v>378.3618055691365</v>
       </c>
       <c r="G20" t="n">
         <v>417.4313748003987</v>
@@ -23992,13 +23992,13 @@
         <v>186.7741830653387</v>
       </c>
       <c r="J20" t="n">
-        <v>66.95599007284454</v>
+        <v>66.95599007284457</v>
       </c>
       <c r="K20" t="n">
-        <v>37.82341776112619</v>
+        <v>37.82341776112625</v>
       </c>
       <c r="L20" t="n">
-        <v>1.448395856862476</v>
+        <v>1.448395856862533</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -24010,16 +24010,16 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>21.31820101697809</v>
+        <v>21.31820101697815</v>
       </c>
       <c r="Q20" t="n">
-        <v>50.53603187050456</v>
+        <v>75.37347594138163</v>
       </c>
       <c r="R20" t="n">
-        <v>124.2585563297552</v>
+        <v>149.0960004006322</v>
       </c>
       <c r="S20" t="n">
-        <v>172.1049327763341</v>
+        <v>195.4595814361797</v>
       </c>
       <c r="T20" t="n">
         <v>216.3076224445705</v>
@@ -24053,28 +24053,28 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>134.3348710057015</v>
+        <v>134.3348710057016</v>
       </c>
       <c r="E21" t="n">
         <v>146.9901277689227</v>
       </c>
       <c r="F21" t="n">
-        <v>133.9859950490513</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>126.1150803617908</v>
+        <v>147.9919010994193</v>
       </c>
       <c r="H21" t="n">
         <v>118.4659946199538</v>
       </c>
       <c r="I21" t="n">
-        <v>88.00944934109813</v>
+        <v>88.00944934109815</v>
       </c>
       <c r="J21" t="n">
-        <v>63.0681989803391</v>
+        <v>63.06819898033912</v>
       </c>
       <c r="K21" t="n">
-        <v>11.48159118566196</v>
+        <v>11.48159118566198</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24092,7 +24092,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.91761274786606</v>
+        <v>25.04079201023771</v>
       </c>
       <c r="R21" t="n">
         <v>117.4842069520851</v>
@@ -24116,7 +24116,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>198.5468420631487</v>
       </c>
     </row>
     <row r="22">
@@ -24150,37 +24150,37 @@
         <v>145.8758374158384</v>
       </c>
       <c r="J22" t="n">
-        <v>97.421277364632</v>
+        <v>97.42127736463203</v>
       </c>
       <c r="K22" t="n">
-        <v>62.8844238822243</v>
+        <v>62.88442388222433</v>
       </c>
       <c r="L22" t="n">
-        <v>43.61680293027459</v>
+        <v>43.61680293027463</v>
       </c>
       <c r="M22" t="n">
-        <v>41.97254530708386</v>
+        <v>41.97254530708391</v>
       </c>
       <c r="N22" t="n">
-        <v>31.2915202704516</v>
+        <v>31.29152027045163</v>
       </c>
       <c r="O22" t="n">
-        <v>53.93507504251048</v>
+        <v>53.9350750425105</v>
       </c>
       <c r="P22" t="n">
-        <v>69.64128415389851</v>
+        <v>69.64128415389854</v>
       </c>
       <c r="Q22" t="n">
         <v>116.718125520665</v>
       </c>
       <c r="R22" t="n">
-        <v>175.0560529919647</v>
+        <v>175.0560529919648</v>
       </c>
       <c r="S22" t="n">
         <v>224.4407168389355</v>
       </c>
       <c r="T22" t="n">
-        <v>221.0652913987814</v>
+        <v>221.0652913987815</v>
       </c>
       <c r="U22" t="n">
         <v>288.6221365381204</v>
@@ -24211,13 +24211,13 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D23" t="n">
-        <v>337.7721596422273</v>
+        <v>314.9181121975591</v>
       </c>
       <c r="E23" t="n">
-        <v>371.4789120616362</v>
+        <v>334.0635480114262</v>
       </c>
       <c r="F23" t="n">
-        <v>403.1992496400135</v>
+        <v>365.7838855898035</v>
       </c>
       <c r="G23" t="n">
         <v>417.4313748003987</v>
@@ -24229,13 +24229,13 @@
         <v>186.7741830653387</v>
       </c>
       <c r="J23" t="n">
-        <v>44.10194262817637</v>
+        <v>66.95599007284457</v>
       </c>
       <c r="K23" t="n">
-        <v>37.82341776112619</v>
+        <v>37.82341776112625</v>
       </c>
       <c r="L23" t="n">
-        <v>1.448395856862476</v>
+        <v>1.448395856862533</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -24247,10 +24247,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>21.31820101697809</v>
+        <v>21.31820101697815</v>
       </c>
       <c r="Q23" t="n">
-        <v>75.37347594138157</v>
+        <v>75.37347594138163</v>
       </c>
       <c r="R23" t="n">
         <v>149.0960004006322</v>
@@ -24268,10 +24268,10 @@
         <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>300.4810997755568</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
-        <v>322.367350244496</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
         <v>382.2855674184499</v>
@@ -24293,7 +24293,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>138.8721191843746</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
@@ -24305,13 +24305,13 @@
         <v>118.4659946199538</v>
       </c>
       <c r="I24" t="n">
-        <v>88.00944934109813</v>
+        <v>88.00944934109815</v>
       </c>
       <c r="J24" t="n">
-        <v>63.0681989803391</v>
+        <v>63.06819898033912</v>
       </c>
       <c r="K24" t="n">
-        <v>11.48159118566196</v>
+        <v>11.48159118566198</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24329,16 +24329,16 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>46.91761274786606</v>
+        <v>46.9176127478661</v>
       </c>
       <c r="R24" t="n">
-        <v>117.4842069520851</v>
+        <v>80.06884290187514</v>
       </c>
       <c r="S24" t="n">
-        <v>177.6096562585834</v>
+        <v>140.1942922083734</v>
       </c>
       <c r="T24" t="n">
-        <v>174.5216367402989</v>
+        <v>211.937000790509</v>
       </c>
       <c r="U24" t="n">
         <v>237.1785495379934</v>
@@ -24347,10 +24347,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>229.2892195268015</v>
+        <v>233.7491309215866</v>
       </c>
       <c r="X24" t="n">
-        <v>179.8975503892605</v>
+        <v>179.8975503892606</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -24387,37 +24387,37 @@
         <v>145.8758374158384</v>
       </c>
       <c r="J25" t="n">
-        <v>97.421277364632</v>
+        <v>97.42127736463203</v>
       </c>
       <c r="K25" t="n">
-        <v>62.8844238822243</v>
+        <v>62.88442388222433</v>
       </c>
       <c r="L25" t="n">
-        <v>43.61680293027459</v>
+        <v>43.61680293027463</v>
       </c>
       <c r="M25" t="n">
-        <v>41.97254530708386</v>
+        <v>41.97254530708391</v>
       </c>
       <c r="N25" t="n">
-        <v>31.2915202704516</v>
+        <v>31.29152027045163</v>
       </c>
       <c r="O25" t="n">
-        <v>53.93507504251048</v>
+        <v>53.9350750425105</v>
       </c>
       <c r="P25" t="n">
-        <v>69.64128415389851</v>
+        <v>69.64128415389854</v>
       </c>
       <c r="Q25" t="n">
         <v>116.718125520665</v>
       </c>
       <c r="R25" t="n">
-        <v>175.0560529919647</v>
+        <v>175.0560529919648</v>
       </c>
       <c r="S25" t="n">
         <v>224.4407168389355</v>
       </c>
       <c r="T25" t="n">
-        <v>221.0652913987814</v>
+        <v>221.0652913987815</v>
       </c>
       <c r="U25" t="n">
         <v>288.6221365381204</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>374.0872403778333</v>
+        <v>351.2331929331652</v>
       </c>
       <c r="C26" t="n">
         <v>350.2054973811788</v>
@@ -24454,7 +24454,7 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F26" t="n">
-        <v>403.1117990691859</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
         <v>417.4313748003987</v>
@@ -24466,13 +24466,13 @@
         <v>186.7741830653387</v>
       </c>
       <c r="J26" t="n">
-        <v>66.95599007284454</v>
+        <v>66.95599007284457</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4080537109161071</v>
+        <v>37.82341776112625</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.448395856862533</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -24484,10 +24484,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>21.31820101697815</v>
       </c>
       <c r="Q26" t="n">
-        <v>75.37347594138157</v>
+        <v>75.37347594138163</v>
       </c>
       <c r="R26" t="n">
         <v>149.0960004006322</v>
@@ -24499,7 +24499,7 @@
         <v>216.3076224445705</v>
       </c>
       <c r="U26" t="n">
-        <v>212.6226335894597</v>
+        <v>250.0379976396698</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24508,10 +24508,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
-        <v>359.7827142947061</v>
+        <v>322.3673502444962</v>
       </c>
       <c r="Y26" t="n">
-        <v>382.2855674184499</v>
+        <v>344.8702033682399</v>
       </c>
     </row>
     <row r="27">
@@ -24533,22 +24533,22 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>121.4080750697184</v>
       </c>
       <c r="G27" t="n">
-        <v>147.9919010994193</v>
+        <v>110.5765370492093</v>
       </c>
       <c r="H27" t="n">
-        <v>96.99213315019075</v>
+        <v>118.4659946199538</v>
       </c>
       <c r="I27" t="n">
-        <v>50.59408529088805</v>
+        <v>88.00944934109815</v>
       </c>
       <c r="J27" t="n">
-        <v>25.65283493012902</v>
+        <v>63.06819898033912</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>11.48159118566198</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24566,13 +24566,13 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>46.91761274786606</v>
+        <v>9.502248697656128</v>
       </c>
       <c r="R27" t="n">
         <v>117.4842069520851</v>
       </c>
       <c r="S27" t="n">
-        <v>177.6096562585834</v>
+        <v>144.6542036031585</v>
       </c>
       <c r="T27" t="n">
         <v>211.937000790509</v>
@@ -24587,7 +24587,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>179.8975503892605</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
         <v>223.3842861340256</v>
@@ -24624,37 +24624,37 @@
         <v>145.8758374158384</v>
       </c>
       <c r="J28" t="n">
-        <v>97.421277364632</v>
+        <v>97.42127736463203</v>
       </c>
       <c r="K28" t="n">
-        <v>62.8844238822243</v>
+        <v>62.88442388222433</v>
       </c>
       <c r="L28" t="n">
-        <v>43.61680293027459</v>
+        <v>43.61680293027463</v>
       </c>
       <c r="M28" t="n">
-        <v>41.97254530708386</v>
+        <v>41.97254530708391</v>
       </c>
       <c r="N28" t="n">
-        <v>31.2915202704516</v>
+        <v>31.29152027045163</v>
       </c>
       <c r="O28" t="n">
-        <v>53.93507504251048</v>
+        <v>53.9350750425105</v>
       </c>
       <c r="P28" t="n">
-        <v>69.64128415389851</v>
+        <v>69.64128415389854</v>
       </c>
       <c r="Q28" t="n">
         <v>116.718125520665</v>
       </c>
       <c r="R28" t="n">
-        <v>175.0560529919647</v>
+        <v>175.0560529919648</v>
       </c>
       <c r="S28" t="n">
         <v>224.4407168389355</v>
       </c>
       <c r="T28" t="n">
-        <v>221.0652913987814</v>
+        <v>221.0652913987815</v>
       </c>
       <c r="U28" t="n">
         <v>288.6221365381204</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>374.0872403778333</v>
+        <v>336.6718763276234</v>
       </c>
       <c r="C29" t="n">
-        <v>350.2054973811788</v>
+        <v>312.7901333309688</v>
       </c>
       <c r="D29" t="n">
         <v>337.7721596422273</v>
@@ -24703,13 +24703,13 @@
         <v>186.7741830653387</v>
       </c>
       <c r="J29" t="n">
-        <v>66.95599007284454</v>
+        <v>66.95599007284457</v>
       </c>
       <c r="K29" t="n">
-        <v>37.82341776112619</v>
+        <v>37.82341776112625</v>
       </c>
       <c r="L29" t="n">
-        <v>1.448395856862476</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -24721,19 +24721,19 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>21.31820101697809</v>
+        <v>21.31820101697815</v>
       </c>
       <c r="Q29" t="n">
-        <v>75.37347594138157</v>
+        <v>75.37347594138163</v>
       </c>
       <c r="R29" t="n">
         <v>149.0960004006322</v>
       </c>
       <c r="S29" t="n">
-        <v>158.0442173859696</v>
+        <v>195.4595814361797</v>
       </c>
       <c r="T29" t="n">
-        <v>178.8922583943605</v>
+        <v>216.3076224445705</v>
       </c>
       <c r="U29" t="n">
         <v>250.0379976396698</v>
@@ -24745,10 +24745,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
-        <v>336.928666850038</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.2855674184499</v>
+        <v>360.8799158306443</v>
       </c>
     </row>
     <row r="30">
@@ -24767,7 +24767,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>138.8721191843746</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
@@ -24776,16 +24776,16 @@
         <v>147.9919010994193</v>
       </c>
       <c r="H30" t="n">
-        <v>81.05063056974376</v>
+        <v>118.4659946199538</v>
       </c>
       <c r="I30" t="n">
-        <v>50.59408529088805</v>
+        <v>88.00944934109815</v>
       </c>
       <c r="J30" t="n">
-        <v>25.65283493012902</v>
+        <v>63.06819898033912</v>
       </c>
       <c r="K30" t="n">
-        <v>11.48159118566196</v>
+        <v>11.48159118566198</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24803,7 +24803,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.91761274786606</v>
+        <v>9.502248697656128</v>
       </c>
       <c r="R30" t="n">
         <v>117.4842069520851</v>
@@ -24815,10 +24815,10 @@
         <v>211.937000790509</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1785495379934</v>
+        <v>199.7631854877834</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>203.2335568651923</v>
       </c>
       <c r="W30" t="n">
         <v>266.7045835770116</v>
@@ -24827,7 +24827,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>190.4288334786007</v>
       </c>
     </row>
     <row r="31">
@@ -24861,37 +24861,37 @@
         <v>145.8758374158384</v>
       </c>
       <c r="J31" t="n">
-        <v>97.421277364632</v>
+        <v>97.42127736463203</v>
       </c>
       <c r="K31" t="n">
-        <v>62.8844238822243</v>
+        <v>62.88442388222433</v>
       </c>
       <c r="L31" t="n">
-        <v>43.61680293027459</v>
+        <v>43.61680293027463</v>
       </c>
       <c r="M31" t="n">
-        <v>41.97254530708386</v>
+        <v>41.97254530708391</v>
       </c>
       <c r="N31" t="n">
-        <v>31.2915202704516</v>
+        <v>31.29152027045163</v>
       </c>
       <c r="O31" t="n">
-        <v>53.93507504251048</v>
+        <v>53.9350750425105</v>
       </c>
       <c r="P31" t="n">
-        <v>69.64128415389851</v>
+        <v>69.64128415389854</v>
       </c>
       <c r="Q31" t="n">
         <v>116.718125520665</v>
       </c>
       <c r="R31" t="n">
-        <v>175.0560529919647</v>
+        <v>175.0560529919648</v>
       </c>
       <c r="S31" t="n">
         <v>224.4407168389355</v>
       </c>
       <c r="T31" t="n">
-        <v>221.0652913987814</v>
+        <v>221.0652913987815</v>
       </c>
       <c r="U31" t="n">
         <v>288.6221365381204</v>
@@ -24922,16 +24922,16 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D32" t="n">
-        <v>337.7721596422273</v>
+        <v>300.3567955920173</v>
       </c>
       <c r="E32" t="n">
-        <v>348.624864616968</v>
+        <v>334.0635480114262</v>
       </c>
       <c r="F32" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>380.0160107501886</v>
+        <v>417.4313748003987</v>
       </c>
       <c r="H32" t="n">
         <v>332.6140269294093</v>
@@ -24940,13 +24940,13 @@
         <v>186.7741830653387</v>
       </c>
       <c r="J32" t="n">
-        <v>66.95599007284454</v>
+        <v>66.95599007284457</v>
       </c>
       <c r="K32" t="n">
-        <v>37.82341776112619</v>
+        <v>37.82341776112625</v>
       </c>
       <c r="L32" t="n">
-        <v>1.448395856862476</v>
+        <v>1.448395856862533</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -24958,10 +24958,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>21.31820101697809</v>
+        <v>21.31820101697815</v>
       </c>
       <c r="Q32" t="n">
-        <v>75.37347594138157</v>
+        <v>75.37347594138163</v>
       </c>
       <c r="R32" t="n">
         <v>149.0960004006322</v>
@@ -24973,13 +24973,13 @@
         <v>216.3076224445705</v>
       </c>
       <c r="U32" t="n">
-        <v>212.6226335894597</v>
+        <v>250.0379976396698</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
-        <v>337.8964638257669</v>
+        <v>315.0424163810987</v>
       </c>
       <c r="X32" t="n">
         <v>359.7827142947061</v>
@@ -25016,13 +25016,13 @@
         <v>118.4659946199538</v>
       </c>
       <c r="I33" t="n">
-        <v>88.00944934109813</v>
+        <v>88.00944934109815</v>
       </c>
       <c r="J33" t="n">
-        <v>63.0681989803391</v>
+        <v>63.06819898033912</v>
       </c>
       <c r="K33" t="n">
-        <v>11.48159118566196</v>
+        <v>11.48159118566198</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25040,28 +25040,28 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>46.91761274786606</v>
+        <v>46.9176127478661</v>
       </c>
       <c r="R33" t="n">
-        <v>117.4842069520851</v>
+        <v>80.06884290187514</v>
       </c>
       <c r="S33" t="n">
-        <v>177.6096562585834</v>
+        <v>140.1942922083734</v>
       </c>
       <c r="T33" t="n">
-        <v>211.937000790509</v>
+        <v>174.521636740299</v>
       </c>
       <c r="U33" t="n">
-        <v>199.7631854877833</v>
+        <v>204.2230968825684</v>
       </c>
       <c r="V33" t="n">
-        <v>203.2335568651922</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>229.2892195268015</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>184.3574617840456</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
         <v>223.3842861340256</v>
@@ -25098,37 +25098,37 @@
         <v>145.8758374158384</v>
       </c>
       <c r="J34" t="n">
-        <v>97.421277364632</v>
+        <v>97.42127736463203</v>
       </c>
       <c r="K34" t="n">
-        <v>62.8844238822243</v>
+        <v>62.88442388222433</v>
       </c>
       <c r="L34" t="n">
-        <v>43.61680293027459</v>
+        <v>43.61680293027463</v>
       </c>
       <c r="M34" t="n">
-        <v>41.97254530708386</v>
+        <v>41.97254530708391</v>
       </c>
       <c r="N34" t="n">
-        <v>31.2915202704516</v>
+        <v>31.29152027045163</v>
       </c>
       <c r="O34" t="n">
-        <v>53.93507504251048</v>
+        <v>53.9350750425105</v>
       </c>
       <c r="P34" t="n">
-        <v>69.64128415389851</v>
+        <v>69.64128415389854</v>
       </c>
       <c r="Q34" t="n">
         <v>116.718125520665</v>
       </c>
       <c r="R34" t="n">
-        <v>175.0560529919647</v>
+        <v>175.0560529919648</v>
       </c>
       <c r="S34" t="n">
         <v>224.4407168389355</v>
       </c>
       <c r="T34" t="n">
-        <v>221.0652913987814</v>
+        <v>221.0652913987815</v>
       </c>
       <c r="U34" t="n">
         <v>288.6221365381204</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>350.7325917179877</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C35" t="n">
         <v>350.2054973811788</v>
@@ -25168,7 +25168,7 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>417.4313748003987</v>
+        <v>392.593930729522</v>
       </c>
       <c r="H35" t="n">
         <v>332.6140269294093</v>
@@ -25177,13 +25177,13 @@
         <v>186.7741830653387</v>
       </c>
       <c r="J35" t="n">
-        <v>66.95599007284454</v>
+        <v>66.95599007284457</v>
       </c>
       <c r="K35" t="n">
-        <v>37.82341776112619</v>
+        <v>37.82341776112625</v>
       </c>
       <c r="L35" t="n">
-        <v>1.448395856862476</v>
+        <v>1.448395856862533</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -25195,10 +25195,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>21.31820101697809</v>
+        <v>21.31820101697815</v>
       </c>
       <c r="Q35" t="n">
-        <v>75.37347594138157</v>
+        <v>75.37347594138163</v>
       </c>
       <c r="R35" t="n">
         <v>149.0960004006322</v>
@@ -25210,16 +25210,16 @@
         <v>216.3076224445705</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0379976396698</v>
+        <v>226.6833489798242</v>
       </c>
       <c r="V35" t="n">
-        <v>320.879783609152</v>
+        <v>296.0423395382753</v>
       </c>
       <c r="W35" t="n">
-        <v>313.0590197548899</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
-        <v>334.9452702238291</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
         <v>382.2855674184499</v>
@@ -25253,13 +25253,13 @@
         <v>118.4659946199538</v>
       </c>
       <c r="I36" t="n">
-        <v>88.00944934109813</v>
+        <v>88.00944934109815</v>
       </c>
       <c r="J36" t="n">
-        <v>63.0681989803391</v>
+        <v>63.06819898033912</v>
       </c>
       <c r="K36" t="n">
-        <v>11.48159118566196</v>
+        <v>11.48159118566198</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25277,7 +25277,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.91761274786606</v>
+        <v>22.08016867698935</v>
       </c>
       <c r="R36" t="n">
         <v>117.4842069520851</v>
@@ -25286,22 +25286,22 @@
         <v>177.6096562585834</v>
       </c>
       <c r="T36" t="n">
-        <v>211.937000790509</v>
+        <v>190.0601800528807</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1785495379934</v>
+        <v>212.3411054671166</v>
       </c>
       <c r="V36" t="n">
-        <v>218.7721001777738</v>
+        <v>215.8114768445255</v>
       </c>
       <c r="W36" t="n">
-        <v>241.8671395061346</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>192.4754703685936</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>198.5468420631486</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -25335,37 +25335,37 @@
         <v>145.8758374158384</v>
       </c>
       <c r="J37" t="n">
-        <v>97.421277364632</v>
+        <v>97.42127736463203</v>
       </c>
       <c r="K37" t="n">
-        <v>62.8844238822243</v>
+        <v>62.88442388222433</v>
       </c>
       <c r="L37" t="n">
-        <v>43.61680293027459</v>
+        <v>43.61680293027463</v>
       </c>
       <c r="M37" t="n">
-        <v>41.97254530708386</v>
+        <v>41.97254530708391</v>
       </c>
       <c r="N37" t="n">
-        <v>31.2915202704516</v>
+        <v>31.29152027045163</v>
       </c>
       <c r="O37" t="n">
-        <v>53.93507504251048</v>
+        <v>53.9350750425105</v>
       </c>
       <c r="P37" t="n">
-        <v>69.64128415389851</v>
+        <v>69.64128415389854</v>
       </c>
       <c r="Q37" t="n">
         <v>116.718125520665</v>
       </c>
       <c r="R37" t="n">
-        <v>175.0560529919647</v>
+        <v>175.0560529919648</v>
       </c>
       <c r="S37" t="n">
         <v>224.4407168389355</v>
       </c>
       <c r="T37" t="n">
-        <v>221.0652913987814</v>
+        <v>221.0652913987815</v>
       </c>
       <c r="U37" t="n">
         <v>288.6221365381204</v>
@@ -25396,31 +25396,31 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D38" t="n">
-        <v>337.7721596422273</v>
+        <v>314.4175109823817</v>
       </c>
       <c r="E38" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
-        <v>403.1992496400135</v>
+        <v>378.3618055691365</v>
       </c>
       <c r="G38" t="n">
-        <v>417.4313748003987</v>
+        <v>392.5939307295218</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7765828585323</v>
+        <v>332.6140269294093</v>
       </c>
       <c r="I38" t="n">
         <v>186.7741830653387</v>
       </c>
       <c r="J38" t="n">
-        <v>66.95599007284454</v>
+        <v>66.95599007284457</v>
       </c>
       <c r="K38" t="n">
-        <v>37.82341776112619</v>
+        <v>37.82341776112625</v>
       </c>
       <c r="L38" t="n">
-        <v>1.448395856862476</v>
+        <v>1.448395856862533</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -25432,10 +25432,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>21.31820101697815</v>
       </c>
       <c r="Q38" t="n">
-        <v>75.37347594138157</v>
+        <v>75.37347594138163</v>
       </c>
       <c r="R38" t="n">
         <v>149.0960004006322</v>
@@ -25450,13 +25450,13 @@
         <v>250.0379976396698</v>
       </c>
       <c r="V38" t="n">
-        <v>296.042339538275</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W38" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
-        <v>357.7462666518386</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
         <v>382.2855674184499</v>
@@ -25484,19 +25484,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>147.9919010994193</v>
+        <v>126.1150803617909</v>
       </c>
       <c r="H39" t="n">
         <v>118.4659946199538</v>
       </c>
       <c r="I39" t="n">
-        <v>88.00944934109813</v>
+        <v>88.00944934109815</v>
       </c>
       <c r="J39" t="n">
-        <v>63.0681989803391</v>
+        <v>63.06819898033912</v>
       </c>
       <c r="K39" t="n">
-        <v>11.48159118566196</v>
+        <v>11.48159118566198</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25514,7 +25514,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>46.91761274786606</v>
+        <v>46.9176127478661</v>
       </c>
       <c r="R39" t="n">
         <v>117.4842069520851</v>
@@ -25523,22 +25523,22 @@
         <v>177.6096562585834</v>
       </c>
       <c r="T39" t="n">
-        <v>187.099556719632</v>
+        <v>211.937000790509</v>
       </c>
       <c r="U39" t="n">
         <v>212.3411054671164</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>215.8114768445253</v>
       </c>
       <c r="W39" t="n">
-        <v>244.8277628393832</v>
+        <v>241.8671395061347</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>198.5468420631486</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -25572,37 +25572,37 @@
         <v>145.8758374158384</v>
       </c>
       <c r="J40" t="n">
-        <v>97.421277364632</v>
+        <v>97.42127736463203</v>
       </c>
       <c r="K40" t="n">
-        <v>62.8844238822243</v>
+        <v>62.88442388222433</v>
       </c>
       <c r="L40" t="n">
-        <v>43.61680293027459</v>
+        <v>43.61680293027463</v>
       </c>
       <c r="M40" t="n">
-        <v>41.97254530708386</v>
+        <v>41.97254530708391</v>
       </c>
       <c r="N40" t="n">
-        <v>31.2915202704516</v>
+        <v>31.29152027045163</v>
       </c>
       <c r="O40" t="n">
-        <v>53.93507504251048</v>
+        <v>53.9350750425105</v>
       </c>
       <c r="P40" t="n">
-        <v>69.64128415389851</v>
+        <v>69.64128415389854</v>
       </c>
       <c r="Q40" t="n">
         <v>116.718125520665</v>
       </c>
       <c r="R40" t="n">
-        <v>175.0560529919647</v>
+        <v>175.0560529919648</v>
       </c>
       <c r="S40" t="n">
         <v>224.4407168389355</v>
       </c>
       <c r="T40" t="n">
-        <v>221.0652913987814</v>
+        <v>221.0652913987815</v>
       </c>
       <c r="U40" t="n">
         <v>288.6221365381204</v>
@@ -25630,10 +25630,10 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
-        <v>350.2054973811788</v>
+        <v>326.8508487213333</v>
       </c>
       <c r="D41" t="n">
-        <v>312.9347155713503</v>
+        <v>312.9347155713504</v>
       </c>
       <c r="E41" t="n">
         <v>371.4789120616362</v>
@@ -25651,13 +25651,13 @@
         <v>186.7741830653387</v>
       </c>
       <c r="J41" t="n">
-        <v>66.95599007284454</v>
+        <v>66.95599007284457</v>
       </c>
       <c r="K41" t="n">
-        <v>37.82341776112619</v>
+        <v>37.82341776112625</v>
       </c>
       <c r="L41" t="n">
-        <v>1.448395856862476</v>
+        <v>1.448395856862533</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -25669,10 +25669,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>21.31820101697809</v>
+        <v>21.31820101697815</v>
       </c>
       <c r="Q41" t="n">
-        <v>75.37347594138157</v>
+        <v>75.37347594138163</v>
       </c>
       <c r="R41" t="n">
         <v>149.0960004006322</v>
@@ -25684,10 +25684,10 @@
         <v>216.3076224445705</v>
       </c>
       <c r="U41" t="n">
-        <v>226.6833489798241</v>
+        <v>250.0379976396698</v>
       </c>
       <c r="V41" t="n">
-        <v>296.042339538275</v>
+        <v>296.0423395382751</v>
       </c>
       <c r="W41" t="n">
         <v>337.8964638257669</v>
@@ -25712,28 +25712,28 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>134.3348710057016</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>149.9507511021713</v>
       </c>
       <c r="F42" t="n">
-        <v>136.9466183822999</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>123.1544570285423</v>
       </c>
       <c r="H42" t="n">
-        <v>93.62855054907686</v>
+        <v>118.4659946199538</v>
       </c>
       <c r="I42" t="n">
-        <v>88.00944934109813</v>
+        <v>88.00944934109815</v>
       </c>
       <c r="J42" t="n">
-        <v>63.0681989803391</v>
+        <v>63.06819898033912</v>
       </c>
       <c r="K42" t="n">
-        <v>11.48159118566196</v>
+        <v>11.48159118566198</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25751,16 +25751,16 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>46.91761274786606</v>
+        <v>46.9176127478661</v>
       </c>
       <c r="R42" t="n">
         <v>117.4842069520851</v>
       </c>
       <c r="S42" t="n">
-        <v>177.6096562585834</v>
+        <v>152.7722121877065</v>
       </c>
       <c r="T42" t="n">
-        <v>211.937000790509</v>
+        <v>187.099556719632</v>
       </c>
       <c r="U42" t="n">
         <v>237.1785495379934</v>
@@ -25809,37 +25809,37 @@
         <v>145.8758374158384</v>
       </c>
       <c r="J43" t="n">
-        <v>97.421277364632</v>
+        <v>97.42127736463203</v>
       </c>
       <c r="K43" t="n">
-        <v>62.8844238822243</v>
+        <v>62.88442388222433</v>
       </c>
       <c r="L43" t="n">
-        <v>43.61680293027459</v>
+        <v>43.61680293027463</v>
       </c>
       <c r="M43" t="n">
-        <v>41.97254530708386</v>
+        <v>41.97254530708391</v>
       </c>
       <c r="N43" t="n">
-        <v>31.2915202704516</v>
+        <v>31.29152027045163</v>
       </c>
       <c r="O43" t="n">
-        <v>53.93507504251048</v>
+        <v>53.9350750425105</v>
       </c>
       <c r="P43" t="n">
-        <v>69.64128415389851</v>
+        <v>69.64128415389854</v>
       </c>
       <c r="Q43" t="n">
         <v>116.718125520665</v>
       </c>
       <c r="R43" t="n">
-        <v>175.0560529919647</v>
+        <v>175.0560529919648</v>
       </c>
       <c r="S43" t="n">
         <v>224.4407168389355</v>
       </c>
       <c r="T43" t="n">
-        <v>221.0652913987814</v>
+        <v>221.0652913987815</v>
       </c>
       <c r="U43" t="n">
         <v>288.6221365381204</v>
@@ -25876,10 +25876,10 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
-        <v>403.1992496400135</v>
+        <v>379.8446009801679</v>
       </c>
       <c r="G44" t="n">
-        <v>417.4313748003987</v>
+        <v>392.5939307295218</v>
       </c>
       <c r="H44" t="n">
         <v>332.6140269294093</v>
@@ -25888,13 +25888,13 @@
         <v>186.7741830653387</v>
       </c>
       <c r="J44" t="n">
-        <v>66.95599007284454</v>
+        <v>66.95599007284457</v>
       </c>
       <c r="K44" t="n">
-        <v>37.82341776112622</v>
+        <v>37.82341776112625</v>
       </c>
       <c r="L44" t="n">
-        <v>1.448395856862476</v>
+        <v>1.448395856862533</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -25909,22 +25909,22 @@
         <v>21.31820101697815</v>
       </c>
       <c r="Q44" t="n">
-        <v>75.3734759413816</v>
+        <v>75.37347594138163</v>
       </c>
       <c r="R44" t="n">
         <v>149.0960004006322</v>
       </c>
       <c r="S44" t="n">
-        <v>195.4595814361797</v>
+        <v>170.6221373653028</v>
       </c>
       <c r="T44" t="n">
         <v>216.3076224445705</v>
       </c>
       <c r="U44" t="n">
-        <v>225.2005535687928</v>
+        <v>250.0379976396698</v>
       </c>
       <c r="V44" t="n">
-        <v>296.042339538275</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
         <v>337.8964638257669</v>
@@ -25933,7 +25933,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>358.9309187586043</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="45">
@@ -25952,22 +25952,22 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>146.9901277689227</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>133.9859950490514</v>
       </c>
       <c r="G45" t="n">
         <v>147.9919010994193</v>
       </c>
       <c r="H45" t="n">
-        <v>93.62855054907686</v>
+        <v>93.62855054907692</v>
       </c>
       <c r="I45" t="n">
-        <v>88.00944934109815</v>
+        <v>66.13262860346977</v>
       </c>
       <c r="J45" t="n">
-        <v>63.0681989803391</v>
+        <v>63.06819898033912</v>
       </c>
       <c r="K45" t="n">
         <v>11.48159118566198</v>
@@ -25988,7 +25988,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.08016867698909</v>
+        <v>46.9176127478661</v>
       </c>
       <c r="R45" t="n">
         <v>117.4842069520851</v>
@@ -26000,10 +26000,10 @@
         <v>211.937000790509</v>
       </c>
       <c r="U45" t="n">
-        <v>212.3411054671164</v>
+        <v>237.1785495379934</v>
       </c>
       <c r="V45" t="n">
-        <v>218.7721001777738</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
         <v>266.7045835770116</v>
@@ -26046,37 +26046,37 @@
         <v>145.8758374158384</v>
       </c>
       <c r="J46" t="n">
-        <v>97.42127736463202</v>
+        <v>97.42127736463203</v>
       </c>
       <c r="K46" t="n">
-        <v>62.88442388222431</v>
+        <v>62.88442388222433</v>
       </c>
       <c r="L46" t="n">
-        <v>43.6168029302746</v>
+        <v>43.61680293027463</v>
       </c>
       <c r="M46" t="n">
-        <v>41.97254530708388</v>
+        <v>41.97254530708391</v>
       </c>
       <c r="N46" t="n">
-        <v>31.29152027045161</v>
+        <v>31.29152027045163</v>
       </c>
       <c r="O46" t="n">
-        <v>53.93507504251049</v>
+        <v>53.9350750425105</v>
       </c>
       <c r="P46" t="n">
-        <v>69.64128415389852</v>
+        <v>69.64128415389854</v>
       </c>
       <c r="Q46" t="n">
         <v>116.718125520665</v>
       </c>
       <c r="R46" t="n">
-        <v>175.0560529919647</v>
+        <v>175.0560529919648</v>
       </c>
       <c r="S46" t="n">
         <v>224.4407168389355</v>
       </c>
       <c r="T46" t="n">
-        <v>221.0652913987814</v>
+        <v>221.0652913987815</v>
       </c>
       <c r="U46" t="n">
         <v>288.6221365381204</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>272325.6584578713</v>
+        <v>272325.6584578712</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>331258.4285150345</v>
+        <v>331258.4285150344</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>331258.4285150346</v>
+        <v>331258.4285150345</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>336298.6815383689</v>
+        <v>336298.6815383688</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>336298.6815383689</v>
+        <v>336298.6815383688</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>336298.6815383689</v>
+        <v>336298.6815383688</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>331258.4285150346</v>
+        <v>331258.4285150344</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>331258.4285150345</v>
+        <v>331258.4285150346</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>331258.4285150346</v>
+        <v>331258.4285150345</v>
       </c>
     </row>
     <row r="16">
@@ -26328,13 +26328,13 @@
         <v>132503.3714060138</v>
       </c>
       <c r="G2" t="n">
-        <v>132503.3714060138</v>
+        <v>132503.3714060137</v>
       </c>
       <c r="H2" t="n">
         <v>132503.3714060138</v>
       </c>
       <c r="I2" t="n">
-        <v>134519.4726153476</v>
+        <v>134519.4726153475</v>
       </c>
       <c r="J2" t="n">
         <v>134519.4726153475</v>
@@ -26346,10 +26346,10 @@
         <v>134519.4726153475</v>
       </c>
       <c r="M2" t="n">
-        <v>132503.3714060138</v>
+        <v>132503.3714060137</v>
       </c>
       <c r="N2" t="n">
-        <v>132503.3714060138</v>
+        <v>132503.3714060137</v>
       </c>
       <c r="O2" t="n">
         <v>132503.3714060138</v>
@@ -26374,7 +26374,7 @@
         <v>24186.52745747732</v>
       </c>
       <c r="E3" t="n">
-        <v>56367.6932989685</v>
+        <v>56367.69329896844</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3344.733058824228</v>
+        <v>3344.733058824223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>3055.122441709117</v>
+        <v>3055.122441709226</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>15.15159353305529</v>
+        <v>15.15159353305525</v>
       </c>
       <c r="F4" t="n">
-        <v>15.15159353305529</v>
+        <v>15.15159353305525</v>
       </c>
       <c r="G4" t="n">
-        <v>15.15159353305529</v>
+        <v>15.15159353305525</v>
       </c>
       <c r="H4" t="n">
-        <v>15.1515935330553</v>
+        <v>15.15159353305525</v>
       </c>
       <c r="I4" t="n">
-        <v>21.32270222400639</v>
+        <v>21.32270222400633</v>
       </c>
       <c r="J4" t="n">
-        <v>21.32270222400639</v>
+        <v>21.32270222400633</v>
       </c>
       <c r="K4" t="n">
-        <v>21.32270222400639</v>
+        <v>21.32270222400633</v>
       </c>
       <c r="L4" t="n">
-        <v>21.32270222400639</v>
+        <v>21.32270222400633</v>
       </c>
       <c r="M4" t="n">
-        <v>15.15159353305529</v>
+        <v>15.15159353305517</v>
       </c>
       <c r="N4" t="n">
-        <v>15.15159353305529</v>
+        <v>15.15159353305525</v>
       </c>
       <c r="O4" t="n">
-        <v>15.15159353305529</v>
+        <v>15.15159353305525</v>
       </c>
       <c r="P4" t="n">
-        <v>15.15159353305529</v>
+        <v>15.15159353305525</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>42133.56512717394</v>
       </c>
       <c r="E5" t="n">
-        <v>11344.367506703</v>
+        <v>11344.36750670299</v>
       </c>
       <c r="F5" t="n">
-        <v>11344.367506703</v>
+        <v>11344.36750670299</v>
       </c>
       <c r="G5" t="n">
-        <v>11344.367506703</v>
+        <v>11344.36750670299</v>
       </c>
       <c r="H5" t="n">
-        <v>11344.36750670301</v>
+        <v>11344.36750670299</v>
       </c>
       <c r="I5" t="n">
-        <v>12109.10504144646</v>
+        <v>12109.10504144644</v>
       </c>
       <c r="J5" t="n">
-        <v>12109.10504144646</v>
+        <v>12109.10504144644</v>
       </c>
       <c r="K5" t="n">
-        <v>12109.10504144646</v>
+        <v>12109.10504144644</v>
       </c>
       <c r="L5" t="n">
-        <v>12109.10504144646</v>
+        <v>12109.10504144644</v>
       </c>
       <c r="M5" t="n">
-        <v>11344.367506703</v>
+        <v>11344.36750670299</v>
       </c>
       <c r="N5" t="n">
-        <v>11344.367506703</v>
+        <v>11344.36750670299</v>
       </c>
       <c r="O5" t="n">
-        <v>11344.367506703</v>
+        <v>11344.36750670299</v>
       </c>
       <c r="P5" t="n">
-        <v>11344.367506703</v>
+        <v>11344.36750670299</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-265643.4020092656</v>
+        <v>-282588.2535119698</v>
       </c>
       <c r="C6" t="n">
-        <v>47375.88612522564</v>
+        <v>30729.43557291968</v>
       </c>
       <c r="D6" t="n">
-        <v>49990.52165699474</v>
+        <v>33713.08864761364</v>
       </c>
       <c r="E6" t="n">
-        <v>64776.15900680923</v>
+        <v>49308.36385564656</v>
       </c>
       <c r="F6" t="n">
-        <v>121143.8523057778</v>
+        <v>105676.0571546151</v>
       </c>
       <c r="G6" t="n">
-        <v>121143.8523057778</v>
+        <v>105676.057154615</v>
       </c>
       <c r="H6" t="n">
-        <v>121143.8523057777</v>
+        <v>105676.057154615</v>
       </c>
       <c r="I6" t="n">
-        <v>119044.3118128529</v>
+        <v>103677.3217221568</v>
       </c>
       <c r="J6" t="n">
-        <v>122389.0448716771</v>
+        <v>107022.054780981</v>
       </c>
       <c r="K6" t="n">
-        <v>122389.0448716771</v>
+        <v>107022.054780981</v>
       </c>
       <c r="L6" t="n">
-        <v>122389.0448716771</v>
+        <v>107022.054780981</v>
       </c>
       <c r="M6" t="n">
-        <v>118088.7298640686</v>
+        <v>102620.9347129058</v>
       </c>
       <c r="N6" t="n">
-        <v>121143.8523057777</v>
+        <v>105676.057154615</v>
       </c>
       <c r="O6" t="n">
-        <v>121143.8523057777</v>
+        <v>105676.057154615</v>
       </c>
       <c r="P6" t="n">
-        <v>121143.8523057777</v>
+        <v>105676.057154615</v>
       </c>
     </row>
   </sheetData>
@@ -26749,34 +26749,34 @@
         <v>451.1124269354899</v>
       </c>
       <c r="F3" t="n">
-        <v>451.11242693549</v>
+        <v>451.1124269354899</v>
       </c>
       <c r="G3" t="n">
-        <v>451.11242693549</v>
+        <v>451.1124269354899</v>
       </c>
       <c r="H3" t="n">
-        <v>451.11242693549</v>
+        <v>451.1124269354899</v>
       </c>
       <c r="I3" t="n">
-        <v>451.11242693549</v>
+        <v>451.1124269354899</v>
       </c>
       <c r="J3" t="n">
-        <v>451.11242693549</v>
+        <v>451.1124269354899</v>
       </c>
       <c r="K3" t="n">
-        <v>451.11242693549</v>
+        <v>451.1124269354899</v>
       </c>
       <c r="L3" t="n">
-        <v>451.11242693549</v>
+        <v>451.1124269354899</v>
       </c>
       <c r="M3" t="n">
-        <v>451.11242693549</v>
+        <v>451.1124269354899</v>
       </c>
       <c r="N3" t="n">
-        <v>451.11242693549</v>
+        <v>451.1124269354899</v>
       </c>
       <c r="O3" t="n">
-        <v>451.11242693549</v>
+        <v>451.1124269354899</v>
       </c>
       <c r="P3" t="n">
         <v>451.1124269354899</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="F4" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="G4" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="H4" t="n">
-        <v>24.83744407087702</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="I4" t="n">
-        <v>37.41536405021009</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="J4" t="n">
-        <v>37.41536405021009</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="K4" t="n">
-        <v>37.41536405021009</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="L4" t="n">
-        <v>37.41536405021009</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="M4" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087676</v>
       </c>
       <c r="N4" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="O4" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="P4" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>28.24163016657519</v>
       </c>
       <c r="E3" t="n">
-        <v>60.93054036787788</v>
+        <v>60.93054036787782</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.57791997933307</v>
+        <v>12.57791997933305</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>12.25952409154394</v>
+        <v>12.25952409154438</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31068,7 +31068,7 @@
         <v>230.2533072552751</v>
       </c>
       <c r="P2" t="n">
-        <v>196.5158706438419</v>
+        <v>196.515870643842</v>
       </c>
       <c r="Q2" t="n">
         <v>147.575234749282</v>
@@ -31080,7 +31080,7 @@
         <v>31.1409351608317</v>
       </c>
       <c r="T2" t="n">
-        <v>5.982202684214622</v>
+        <v>5.982202684214623</v>
       </c>
       <c r="U2" t="n">
         <v>0.1093263768674288</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7311846066080457</v>
+        <v>0.7311846066080459</v>
       </c>
       <c r="H3" t="n">
         <v>7.061703963819812</v>
@@ -31147,7 +31147,7 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P3" t="n">
-        <v>139.6241903618469</v>
+        <v>139.624190361847</v>
       </c>
       <c r="Q3" t="n">
         <v>93.33507364351127</v>
@@ -31232,13 +31232,13 @@
         <v>51.33044216389641</v>
       </c>
       <c r="R4" t="n">
-        <v>27.56273661303132</v>
+        <v>27.56273661303133</v>
       </c>
       <c r="S4" t="n">
         <v>10.68292884900547</v>
       </c>
       <c r="T4" t="n">
-        <v>2.619184433506818</v>
+        <v>2.619184433506819</v>
       </c>
       <c r="U4" t="n">
         <v>0.03343639702349135</v>
@@ -31299,7 +31299,7 @@
         <v>255.4916263187078</v>
       </c>
       <c r="N5" t="n">
-        <v>259.6257479408162</v>
+        <v>259.6257479408161</v>
       </c>
       <c r="O5" t="n">
         <v>245.1572316610661</v>
@@ -31357,10 +31357,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7785130043343056</v>
+        <v>0.7785130043343057</v>
       </c>
       <c r="H6" t="n">
-        <v>7.518796647123428</v>
+        <v>7.518796647123427</v>
       </c>
       <c r="I6" t="n">
         <v>26.80406615800132</v>
@@ -31387,10 +31387,10 @@
         <v>148.6618385206447</v>
       </c>
       <c r="Q6" t="n">
-        <v>99.37650209712999</v>
+        <v>99.37650209712997</v>
       </c>
       <c r="R6" t="n">
-        <v>48.33609688314225</v>
+        <v>48.33609688314226</v>
       </c>
       <c r="S6" t="n">
         <v>14.46053760243764</v>
@@ -31439,13 +31439,13 @@
         <v>0.6526791508871155</v>
       </c>
       <c r="H7" t="n">
-        <v>5.802910996069087</v>
+        <v>5.802910996069086</v>
       </c>
       <c r="I7" t="n">
-        <v>19.62784210122345</v>
+        <v>19.62784210122344</v>
       </c>
       <c r="J7" t="n">
-        <v>46.14441596771907</v>
+        <v>46.14441596771906</v>
       </c>
       <c r="K7" t="n">
         <v>75.82945043943032</v>
@@ -31469,10 +31469,10 @@
         <v>54.65297871655656</v>
       </c>
       <c r="R7" t="n">
-        <v>29.34682800261521</v>
+        <v>29.3468280026152</v>
       </c>
       <c r="S7" t="n">
-        <v>11.37441756591454</v>
+        <v>11.37441756591455</v>
       </c>
       <c r="T7" t="n">
         <v>2.788720008335857</v>
@@ -31521,13 +31521,13 @@
         <v>16.06412159119821</v>
       </c>
       <c r="I8" t="n">
-        <v>60.47231027898639</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J8" t="n">
         <v>133.1304518394688</v>
       </c>
       <c r="K8" t="n">
-        <v>199.5280367978889</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L8" t="n">
         <v>247.5321731236922</v>
@@ -31542,7 +31542,7 @@
         <v>264.2864656901256</v>
       </c>
       <c r="P8" t="n">
-        <v>225.5623839830384</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q8" t="n">
         <v>169.3879565952893</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8392591522397692</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H9" t="n">
         <v>8.105476549263036</v>
@@ -31627,16 +31627,16 @@
         <v>107.1306945911678</v>
       </c>
       <c r="R9" t="n">
-        <v>52.10768666274639</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S9" t="n">
         <v>15.5888706567343</v>
       </c>
       <c r="T9" t="n">
-        <v>3.382803337317314</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05521441791051115</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7036066806956937</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H10" t="n">
         <v>6.255703033821718</v>
       </c>
       <c r="I10" t="n">
-        <v>21.1593718158305</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J10" t="n">
         <v>49.74499232518554</v>
@@ -31712,7 +31712,7 @@
         <v>12.26194551721495</v>
       </c>
       <c r="T10" t="n">
-        <v>3.006319453881599</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U10" t="n">
         <v>0.03837854621976516</v>
@@ -31758,13 +31758,13 @@
         <v>18.57268398935913</v>
       </c>
       <c r="I11" t="n">
-        <v>69.91562548514766</v>
+        <v>69.91562548514764</v>
       </c>
       <c r="J11" t="n">
         <v>153.9200134497127</v>
       </c>
       <c r="K11" t="n">
-        <v>230.6862005137501</v>
+        <v>230.68620051375</v>
       </c>
       <c r="L11" t="n">
         <v>286.1866304065219</v>
@@ -31776,13 +31776,13 @@
         <v>304.7213816587179</v>
       </c>
       <c r="O11" t="n">
-        <v>305.5572620053348</v>
+        <v>305.5572620053347</v>
       </c>
       <c r="P11" t="n">
         <v>260.7860538044507</v>
       </c>
       <c r="Q11" t="n">
-        <v>195.8394657054468</v>
+        <v>195.8394657054467</v>
       </c>
       <c r="R11" t="n">
         <v>113.9183557326089</v>
@@ -31791,7 +31791,7 @@
         <v>41.32552534187931</v>
       </c>
       <c r="T11" t="n">
-        <v>7.938671955417514</v>
+        <v>7.938671955417512</v>
       </c>
       <c r="U11" t="n">
         <v>0.1450813835370418</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9703172956725632</v>
+        <v>0.9703172956725631</v>
       </c>
       <c r="H12" t="n">
-        <v>9.371222302942915</v>
+        <v>9.371222302942913</v>
       </c>
       <c r="I12" t="n">
         <v>33.40785425890185</v>
       </c>
       <c r="J12" t="n">
-        <v>91.67370555299425</v>
+        <v>91.67370555299424</v>
       </c>
       <c r="K12" t="n">
         <v>156.684964363056</v>
       </c>
       <c r="L12" t="n">
-        <v>193.8737874023235</v>
+        <v>193.8737874023234</v>
       </c>
       <c r="M12" t="n">
         <v>198.2409654557393</v>
       </c>
       <c r="N12" t="n">
-        <v>185.0743328125436</v>
+        <v>162.2315310669201</v>
       </c>
       <c r="O12" t="n">
-        <v>175.9620605474757</v>
+        <v>198.8048622930991</v>
       </c>
       <c r="P12" t="n">
         <v>185.2880456973336</v>
@@ -31864,7 +31864,7 @@
         <v>123.8601516370802</v>
       </c>
       <c r="R12" t="n">
-        <v>60.24478788395092</v>
+        <v>60.24478788395091</v>
       </c>
       <c r="S12" t="n">
         <v>18.02321818935659</v>
@@ -31873,7 +31873,7 @@
         <v>3.911059625978444</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06383666418898445</v>
+        <v>0.06383666418898444</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8134814256213752</v>
+        <v>0.813481425621375</v>
       </c>
       <c r="H13" t="n">
-        <v>7.232589402342777</v>
+        <v>7.232589402342776</v>
       </c>
       <c r="I13" t="n">
         <v>24.463605054141</v>
@@ -31922,7 +31922,7 @@
         <v>57.51313679143122</v>
       </c>
       <c r="K13" t="n">
-        <v>94.51175108582883</v>
+        <v>94.51175108582882</v>
       </c>
       <c r="L13" t="n">
         <v>120.9425021328361</v>
@@ -31937,13 +31937,13 @@
         <v>114.9819018687377</v>
       </c>
       <c r="P13" t="n">
-        <v>98.38688078606155</v>
+        <v>98.38688078606154</v>
       </c>
       <c r="Q13" t="n">
         <v>68.11797646725897</v>
       </c>
       <c r="R13" t="n">
-        <v>36.57708301021201</v>
+        <v>36.577083010212</v>
       </c>
       <c r="S13" t="n">
         <v>14.17676266287432</v>
@@ -31989,19 +31989,19 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.813517294213024</v>
+        <v>1.813517294213023</v>
       </c>
       <c r="H14" t="n">
         <v>18.57268398935913</v>
       </c>
       <c r="I14" t="n">
-        <v>69.91562548514766</v>
+        <v>69.91562548514764</v>
       </c>
       <c r="J14" t="n">
         <v>153.9200134497127</v>
       </c>
       <c r="K14" t="n">
-        <v>230.6862005137501</v>
+        <v>230.68620051375</v>
       </c>
       <c r="L14" t="n">
         <v>286.1866304065219</v>
@@ -32013,25 +32013,25 @@
         <v>304.7213816587179</v>
       </c>
       <c r="O14" t="n">
-        <v>305.5572620053348</v>
+        <v>305.5572620053347</v>
       </c>
       <c r="P14" t="n">
-        <v>260.7860538044508</v>
+        <v>260.7860538044507</v>
       </c>
       <c r="Q14" t="n">
-        <v>195.8394657054468</v>
+        <v>195.8394657054467</v>
       </c>
       <c r="R14" t="n">
         <v>113.9183557326089</v>
       </c>
       <c r="S14" t="n">
-        <v>41.32552534187932</v>
+        <v>41.32552534187931</v>
       </c>
       <c r="T14" t="n">
-        <v>7.938671955417515</v>
+        <v>7.938671955417512</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1450813835370419</v>
+        <v>0.1450813835370418</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9703172956725633</v>
+        <v>0.9703172956725631</v>
       </c>
       <c r="H15" t="n">
-        <v>9.371222302942916</v>
+        <v>9.371222302942913</v>
       </c>
       <c r="I15" t="n">
-        <v>33.40785425890186</v>
+        <v>33.40785425890185</v>
       </c>
       <c r="J15" t="n">
-        <v>91.67370555299425</v>
+        <v>91.67370555299424</v>
       </c>
       <c r="K15" t="n">
         <v>156.684964363056</v>
       </c>
       <c r="L15" t="n">
-        <v>192.8702543085507</v>
+        <v>193.8737874023234</v>
       </c>
       <c r="M15" t="n">
         <v>198.2409654557393</v>
@@ -32092,7 +32092,7 @@
         <v>185.0743328125436</v>
       </c>
       <c r="O15" t="n">
-        <v>198.8048622930992</v>
+        <v>197.8013291993263</v>
       </c>
       <c r="P15" t="n">
         <v>163.4487770454829</v>
@@ -32101,7 +32101,7 @@
         <v>123.8601516370802</v>
       </c>
       <c r="R15" t="n">
-        <v>60.24478788395093</v>
+        <v>60.24478788395091</v>
       </c>
       <c r="S15" t="n">
         <v>18.02321818935659</v>
@@ -32110,7 +32110,7 @@
         <v>3.911059625978444</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06383666418898445</v>
+        <v>0.06383666418898444</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8134814256213753</v>
+        <v>0.813481425621375</v>
       </c>
       <c r="H16" t="n">
-        <v>7.232589402342778</v>
+        <v>7.232589402342776</v>
       </c>
       <c r="I16" t="n">
         <v>24.463605054141</v>
       </c>
       <c r="J16" t="n">
-        <v>57.51313679143123</v>
+        <v>57.51313679143122</v>
       </c>
       <c r="K16" t="n">
-        <v>94.51175108582885</v>
+        <v>94.51175108582882</v>
       </c>
       <c r="L16" t="n">
         <v>120.9425021328361</v>
@@ -32174,16 +32174,16 @@
         <v>114.9819018687377</v>
       </c>
       <c r="P16" t="n">
-        <v>98.38688078606157</v>
+        <v>98.38688078606154</v>
       </c>
       <c r="Q16" t="n">
-        <v>68.11797646725898</v>
+        <v>68.11797646725897</v>
       </c>
       <c r="R16" t="n">
-        <v>36.57708301021201</v>
+        <v>36.577083010212</v>
       </c>
       <c r="S16" t="n">
-        <v>14.17676266287433</v>
+        <v>14.17676266287432</v>
       </c>
       <c r="T16" t="n">
         <v>3.475784273109511</v>
@@ -32226,19 +32226,19 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.813517294213024</v>
+        <v>1.813517294213023</v>
       </c>
       <c r="H17" t="n">
         <v>18.57268398935913</v>
       </c>
       <c r="I17" t="n">
-        <v>69.91562548514766</v>
+        <v>69.91562548514764</v>
       </c>
       <c r="J17" t="n">
         <v>153.9200134497127</v>
       </c>
       <c r="K17" t="n">
-        <v>230.6862005137501</v>
+        <v>230.68620051375</v>
       </c>
       <c r="L17" t="n">
         <v>286.1866304065219</v>
@@ -32250,25 +32250,25 @@
         <v>304.7213816587179</v>
       </c>
       <c r="O17" t="n">
-        <v>305.5572620053348</v>
+        <v>305.5572620053347</v>
       </c>
       <c r="P17" t="n">
-        <v>260.7860538044508</v>
+        <v>260.7860538044507</v>
       </c>
       <c r="Q17" t="n">
-        <v>195.8394657054468</v>
+        <v>195.8394657054467</v>
       </c>
       <c r="R17" t="n">
         <v>113.9183557326089</v>
       </c>
       <c r="S17" t="n">
-        <v>41.32552534187932</v>
+        <v>41.32552534187931</v>
       </c>
       <c r="T17" t="n">
-        <v>7.938671955417515</v>
+        <v>7.938671955417512</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1450813835370419</v>
+        <v>0.1450813835370418</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9703172956725633</v>
+        <v>0.9703172956725631</v>
       </c>
       <c r="H18" t="n">
-        <v>9.371222302942916</v>
+        <v>9.371222302942913</v>
       </c>
       <c r="I18" t="n">
-        <v>33.40785425890186</v>
+        <v>33.40785425890185</v>
       </c>
       <c r="J18" t="n">
-        <v>91.67370555299425</v>
+        <v>91.67370555299424</v>
       </c>
       <c r="K18" t="n">
         <v>156.684964363056</v>
       </c>
       <c r="L18" t="n">
-        <v>193.8737874023235</v>
+        <v>193.8737874023234</v>
       </c>
       <c r="M18" t="n">
         <v>198.2409654557393</v>
@@ -32329,7 +32329,7 @@
         <v>185.0743328125436</v>
       </c>
       <c r="O18" t="n">
-        <v>197.8013291993264</v>
+        <v>197.8013291993263</v>
       </c>
       <c r="P18" t="n">
         <v>163.4487770454829</v>
@@ -32338,7 +32338,7 @@
         <v>123.8601516370802</v>
       </c>
       <c r="R18" t="n">
-        <v>60.24478788395093</v>
+        <v>60.24478788395091</v>
       </c>
       <c r="S18" t="n">
         <v>18.02321818935659</v>
@@ -32347,7 +32347,7 @@
         <v>3.911059625978444</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06383666418898445</v>
+        <v>0.06383666418898444</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8134814256213753</v>
+        <v>0.813481425621375</v>
       </c>
       <c r="H19" t="n">
-        <v>7.232589402342778</v>
+        <v>7.232589402342776</v>
       </c>
       <c r="I19" t="n">
         <v>24.463605054141</v>
       </c>
       <c r="J19" t="n">
-        <v>57.51313679143123</v>
+        <v>57.51313679143122</v>
       </c>
       <c r="K19" t="n">
-        <v>94.51175108582885</v>
+        <v>94.51175108582882</v>
       </c>
       <c r="L19" t="n">
         <v>120.9425021328361</v>
@@ -32411,16 +32411,16 @@
         <v>114.9819018687377</v>
       </c>
       <c r="P19" t="n">
-        <v>98.38688078606157</v>
+        <v>98.38688078606154</v>
       </c>
       <c r="Q19" t="n">
-        <v>68.11797646725898</v>
+        <v>68.11797646725897</v>
       </c>
       <c r="R19" t="n">
-        <v>36.57708301021201</v>
+        <v>36.577083010212</v>
       </c>
       <c r="S19" t="n">
-        <v>14.17676266287433</v>
+        <v>14.17676266287432</v>
       </c>
       <c r="T19" t="n">
         <v>3.475784273109511</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.813517294213024</v>
+        <v>1.813517294213023</v>
       </c>
       <c r="H20" t="n">
         <v>18.57268398935913</v>
       </c>
       <c r="I20" t="n">
-        <v>69.91562548514766</v>
+        <v>69.91562548514764</v>
       </c>
       <c r="J20" t="n">
         <v>153.9200134497127</v>
       </c>
       <c r="K20" t="n">
-        <v>230.6862005137501</v>
+        <v>230.68620051375</v>
       </c>
       <c r="L20" t="n">
         <v>286.1866304065219</v>
       </c>
       <c r="M20" t="n">
-        <v>305.8598486081498</v>
+        <v>305.8598486081497</v>
       </c>
       <c r="N20" t="n">
-        <v>304.721381658718</v>
+        <v>304.7213816587179</v>
       </c>
       <c r="O20" t="n">
-        <v>305.5572620053348</v>
+        <v>305.5572620053347</v>
       </c>
       <c r="P20" t="n">
-        <v>260.7860538044508</v>
+        <v>260.7860538044507</v>
       </c>
       <c r="Q20" t="n">
-        <v>195.8394657054468</v>
+        <v>195.8394657054467</v>
       </c>
       <c r="R20" t="n">
         <v>113.9183557326089</v>
       </c>
       <c r="S20" t="n">
-        <v>41.32552534187932</v>
+        <v>41.32552534187931</v>
       </c>
       <c r="T20" t="n">
-        <v>7.938671955417515</v>
+        <v>7.938671955417512</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1450813835370419</v>
+        <v>0.1450813835370418</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9703172956725633</v>
+        <v>0.9703172956725631</v>
       </c>
       <c r="H21" t="n">
-        <v>9.371222302942916</v>
+        <v>9.371222302942913</v>
       </c>
       <c r="I21" t="n">
-        <v>33.40785425890186</v>
+        <v>33.40785425890185</v>
       </c>
       <c r="J21" t="n">
-        <v>91.67370555299425</v>
+        <v>91.67370555299424</v>
       </c>
       <c r="K21" t="n">
         <v>156.684964363056</v>
       </c>
       <c r="L21" t="n">
-        <v>171.0309856567</v>
+        <v>193.8737874023234</v>
       </c>
       <c r="M21" t="n">
-        <v>198.2409654557394</v>
+        <v>198.2409654557393</v>
       </c>
       <c r="N21" t="n">
-        <v>185.0743328125437</v>
+        <v>185.0743328125436</v>
       </c>
       <c r="O21" t="n">
-        <v>198.8048622930992</v>
+        <v>175.9620605474756</v>
       </c>
       <c r="P21" t="n">
         <v>185.2880456973336</v>
@@ -32575,7 +32575,7 @@
         <v>123.8601516370802</v>
       </c>
       <c r="R21" t="n">
-        <v>60.24478788395093</v>
+        <v>60.24478788395091</v>
       </c>
       <c r="S21" t="n">
         <v>18.02321818935659</v>
@@ -32584,7 +32584,7 @@
         <v>3.911059625978444</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06383666418898445</v>
+        <v>0.06383666418898444</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8134814256213753</v>
+        <v>0.813481425621375</v>
       </c>
       <c r="H22" t="n">
-        <v>7.232589402342778</v>
+        <v>7.232589402342776</v>
       </c>
       <c r="I22" t="n">
         <v>24.463605054141</v>
       </c>
       <c r="J22" t="n">
-        <v>57.51313679143123</v>
+        <v>57.51313679143122</v>
       </c>
       <c r="K22" t="n">
-        <v>94.51175108582885</v>
+        <v>94.51175108582882</v>
       </c>
       <c r="L22" t="n">
         <v>120.9425021328361</v>
@@ -32648,16 +32648,16 @@
         <v>114.9819018687377</v>
       </c>
       <c r="P22" t="n">
-        <v>98.38688078606157</v>
+        <v>98.38688078606154</v>
       </c>
       <c r="Q22" t="n">
-        <v>68.11797646725898</v>
+        <v>68.11797646725897</v>
       </c>
       <c r="R22" t="n">
-        <v>36.57708301021201</v>
+        <v>36.577083010212</v>
       </c>
       <c r="S22" t="n">
-        <v>14.17676266287433</v>
+        <v>14.17676266287432</v>
       </c>
       <c r="T22" t="n">
         <v>3.475784273109511</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.813517294213024</v>
+        <v>1.813517294213023</v>
       </c>
       <c r="H23" t="n">
         <v>18.57268398935913</v>
       </c>
       <c r="I23" t="n">
-        <v>69.91562548514766</v>
+        <v>69.91562548514764</v>
       </c>
       <c r="J23" t="n">
         <v>153.9200134497127</v>
       </c>
       <c r="K23" t="n">
-        <v>230.6862005137501</v>
+        <v>230.68620051375</v>
       </c>
       <c r="L23" t="n">
         <v>286.1866304065219</v>
       </c>
       <c r="M23" t="n">
-        <v>318.4377685874828</v>
+        <v>318.4377685874827</v>
       </c>
       <c r="N23" t="n">
-        <v>317.299301638051</v>
+        <v>317.2993016380509</v>
       </c>
       <c r="O23" t="n">
-        <v>305.5572620053348</v>
+        <v>305.5572620053347</v>
       </c>
       <c r="P23" t="n">
-        <v>260.7860538044508</v>
+        <v>260.7860538044507</v>
       </c>
       <c r="Q23" t="n">
-        <v>195.8394657054468</v>
+        <v>195.8394657054467</v>
       </c>
       <c r="R23" t="n">
         <v>113.9183557326089</v>
       </c>
       <c r="S23" t="n">
-        <v>41.32552534187932</v>
+        <v>41.32552534187931</v>
       </c>
       <c r="T23" t="n">
-        <v>7.938671955417515</v>
+        <v>7.938671955417512</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1450813835370419</v>
+        <v>0.1450813835370418</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9703172956725633</v>
+        <v>0.9703172956725631</v>
       </c>
       <c r="H24" t="n">
-        <v>9.371222302942916</v>
+        <v>9.371222302942913</v>
       </c>
       <c r="I24" t="n">
-        <v>33.40785425890186</v>
+        <v>33.40785425890185</v>
       </c>
       <c r="J24" t="n">
-        <v>91.67370555299425</v>
+        <v>91.67370555299424</v>
       </c>
       <c r="K24" t="n">
         <v>156.684964363056</v>
       </c>
       <c r="L24" t="n">
-        <v>206.4517073816566</v>
+        <v>206.4517073816565</v>
       </c>
       <c r="M24" t="n">
-        <v>210.8188854350724</v>
+        <v>210.8188854350723</v>
       </c>
       <c r="N24" t="n">
-        <v>197.6522527918767</v>
+        <v>197.6522527918766</v>
       </c>
       <c r="O24" t="n">
-        <v>188.031781739765</v>
+        <v>188.0317817397649</v>
       </c>
       <c r="P24" t="n">
         <v>185.2880456973336</v>
@@ -32812,7 +32812,7 @@
         <v>123.8601516370802</v>
       </c>
       <c r="R24" t="n">
-        <v>60.24478788395093</v>
+        <v>60.24478788395091</v>
       </c>
       <c r="S24" t="n">
         <v>18.02321818935659</v>
@@ -32821,7 +32821,7 @@
         <v>3.911059625978444</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06383666418898445</v>
+        <v>0.06383666418898444</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8134814256213753</v>
+        <v>0.813481425621375</v>
       </c>
       <c r="H25" t="n">
-        <v>7.232589402342778</v>
+        <v>7.232589402342776</v>
       </c>
       <c r="I25" t="n">
         <v>24.463605054141</v>
       </c>
       <c r="J25" t="n">
-        <v>57.51313679143123</v>
+        <v>57.51313679143122</v>
       </c>
       <c r="K25" t="n">
-        <v>94.51175108582885</v>
+        <v>94.51175108582882</v>
       </c>
       <c r="L25" t="n">
         <v>120.9425021328361</v>
@@ -32885,16 +32885,16 @@
         <v>114.9819018687377</v>
       </c>
       <c r="P25" t="n">
-        <v>98.38688078606157</v>
+        <v>98.38688078606154</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.11797646725898</v>
+        <v>68.11797646725897</v>
       </c>
       <c r="R25" t="n">
-        <v>36.57708301021201</v>
+        <v>36.577083010212</v>
       </c>
       <c r="S25" t="n">
-        <v>14.17676266287433</v>
+        <v>14.17676266287432</v>
       </c>
       <c r="T25" t="n">
         <v>3.475784273109511</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.813517294213024</v>
+        <v>1.813517294213023</v>
       </c>
       <c r="H26" t="n">
         <v>18.57268398935913</v>
       </c>
       <c r="I26" t="n">
-        <v>69.91562548514766</v>
+        <v>69.91562548514764</v>
       </c>
       <c r="J26" t="n">
         <v>153.9200134497127</v>
       </c>
       <c r="K26" t="n">
-        <v>230.6862005137501</v>
+        <v>230.68620051375</v>
       </c>
       <c r="L26" t="n">
         <v>286.1866304065219</v>
       </c>
       <c r="M26" t="n">
-        <v>318.4377685874828</v>
+        <v>318.4377685874827</v>
       </c>
       <c r="N26" t="n">
-        <v>317.299301638051</v>
+        <v>317.2993016380509</v>
       </c>
       <c r="O26" t="n">
-        <v>305.5572620053348</v>
+        <v>305.5572620053347</v>
       </c>
       <c r="P26" t="n">
-        <v>260.7860538044508</v>
+        <v>260.7860538044507</v>
       </c>
       <c r="Q26" t="n">
-        <v>195.8394657054468</v>
+        <v>195.8394657054467</v>
       </c>
       <c r="R26" t="n">
         <v>113.9183557326089</v>
       </c>
       <c r="S26" t="n">
-        <v>41.32552534187932</v>
+        <v>41.32552534187931</v>
       </c>
       <c r="T26" t="n">
-        <v>7.938671955417515</v>
+        <v>7.938671955417512</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1450813835370419</v>
+        <v>0.1450813835370418</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9703172956725633</v>
+        <v>0.9703172956725631</v>
       </c>
       <c r="H27" t="n">
-        <v>9.371222302942916</v>
+        <v>9.371222302942913</v>
       </c>
       <c r="I27" t="n">
-        <v>33.40785425890186</v>
+        <v>33.40785425890185</v>
       </c>
       <c r="J27" t="n">
-        <v>91.67370555299425</v>
+        <v>91.67370555299424</v>
       </c>
       <c r="K27" t="n">
         <v>156.684964363056</v>
       </c>
       <c r="L27" t="n">
-        <v>206.4517073816566</v>
+        <v>183.1007068489893</v>
       </c>
       <c r="M27" t="n">
-        <v>210.8188854350724</v>
+        <v>210.8188854350723</v>
       </c>
       <c r="N27" t="n">
-        <v>197.6522527918767</v>
+        <v>197.6522527918766</v>
       </c>
       <c r="O27" t="n">
-        <v>188.031781739765</v>
+        <v>211.3827822724322</v>
       </c>
       <c r="P27" t="n">
         <v>185.2880456973336</v>
@@ -33049,7 +33049,7 @@
         <v>123.8601516370802</v>
       </c>
       <c r="R27" t="n">
-        <v>60.24478788395093</v>
+        <v>60.24478788395091</v>
       </c>
       <c r="S27" t="n">
         <v>18.02321818935659</v>
@@ -33058,7 +33058,7 @@
         <v>3.911059625978444</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06383666418898445</v>
+        <v>0.06383666418898444</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8134814256213753</v>
+        <v>0.813481425621375</v>
       </c>
       <c r="H28" t="n">
-        <v>7.232589402342778</v>
+        <v>7.232589402342776</v>
       </c>
       <c r="I28" t="n">
         <v>24.463605054141</v>
       </c>
       <c r="J28" t="n">
-        <v>57.51313679143123</v>
+        <v>57.51313679143122</v>
       </c>
       <c r="K28" t="n">
-        <v>94.51175108582885</v>
+        <v>94.51175108582882</v>
       </c>
       <c r="L28" t="n">
         <v>120.9425021328361</v>
@@ -33122,16 +33122,16 @@
         <v>114.9819018687377</v>
       </c>
       <c r="P28" t="n">
-        <v>98.38688078606157</v>
+        <v>98.38688078606154</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.11797646725898</v>
+        <v>68.11797646725897</v>
       </c>
       <c r="R28" t="n">
-        <v>36.57708301021201</v>
+        <v>36.577083010212</v>
       </c>
       <c r="S28" t="n">
-        <v>14.17676266287433</v>
+        <v>14.17676266287432</v>
       </c>
       <c r="T28" t="n">
         <v>3.475784273109511</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.813517294213024</v>
+        <v>1.813517294213023</v>
       </c>
       <c r="H29" t="n">
         <v>18.57268398935913</v>
       </c>
       <c r="I29" t="n">
-        <v>69.91562548514766</v>
+        <v>69.91562548514764</v>
       </c>
       <c r="J29" t="n">
         <v>153.9200134497127</v>
       </c>
       <c r="K29" t="n">
-        <v>230.6862005137501</v>
+        <v>230.68620051375</v>
       </c>
       <c r="L29" t="n">
         <v>286.1866304065219</v>
       </c>
       <c r="M29" t="n">
-        <v>318.4377685874828</v>
+        <v>318.4377685874827</v>
       </c>
       <c r="N29" t="n">
-        <v>317.299301638051</v>
+        <v>317.2993016380509</v>
       </c>
       <c r="O29" t="n">
-        <v>305.5572620053348</v>
+        <v>305.5572620053347</v>
       </c>
       <c r="P29" t="n">
-        <v>260.7860538044508</v>
+        <v>260.7860538044507</v>
       </c>
       <c r="Q29" t="n">
-        <v>195.8394657054468</v>
+        <v>195.8394657054467</v>
       </c>
       <c r="R29" t="n">
         <v>113.9183557326089</v>
       </c>
       <c r="S29" t="n">
-        <v>41.32552534187932</v>
+        <v>41.32552534187931</v>
       </c>
       <c r="T29" t="n">
-        <v>7.938671955417515</v>
+        <v>7.938671955417512</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1450813835370419</v>
+        <v>0.1450813835370418</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,40 +33253,40 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9703172956725633</v>
+        <v>0.9703172956725631</v>
       </c>
       <c r="H30" t="n">
-        <v>9.371222302942916</v>
+        <v>9.371222302942913</v>
       </c>
       <c r="I30" t="n">
-        <v>33.40785425890186</v>
+        <v>33.40785425890185</v>
       </c>
       <c r="J30" t="n">
-        <v>91.67370555299425</v>
+        <v>91.67370555299424</v>
       </c>
       <c r="K30" t="n">
         <v>156.684964363056</v>
       </c>
       <c r="L30" t="n">
-        <v>206.4517073816566</v>
+        <v>206.4517073816565</v>
       </c>
       <c r="M30" t="n">
-        <v>210.8188854350724</v>
+        <v>210.8188854350723</v>
       </c>
       <c r="N30" t="n">
-        <v>197.6522527918767</v>
+        <v>196.1405209110601</v>
       </c>
       <c r="O30" t="n">
-        <v>188.031781739765</v>
+        <v>211.3827822724322</v>
       </c>
       <c r="P30" t="n">
-        <v>185.2880456973336</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q30" t="n">
         <v>123.8601516370802</v>
       </c>
       <c r="R30" t="n">
-        <v>60.24478788395093</v>
+        <v>60.24478788395091</v>
       </c>
       <c r="S30" t="n">
         <v>18.02321818935659</v>
@@ -33295,7 +33295,7 @@
         <v>3.911059625978444</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06383666418898445</v>
+        <v>0.06383666418898444</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8134814256213753</v>
+        <v>0.813481425621375</v>
       </c>
       <c r="H31" t="n">
-        <v>7.232589402342778</v>
+        <v>7.232589402342776</v>
       </c>
       <c r="I31" t="n">
         <v>24.463605054141</v>
       </c>
       <c r="J31" t="n">
-        <v>57.51313679143123</v>
+        <v>57.51313679143122</v>
       </c>
       <c r="K31" t="n">
-        <v>94.51175108582885</v>
+        <v>94.51175108582882</v>
       </c>
       <c r="L31" t="n">
         <v>120.9425021328361</v>
@@ -33359,16 +33359,16 @@
         <v>114.9819018687377</v>
       </c>
       <c r="P31" t="n">
-        <v>98.38688078606157</v>
+        <v>98.38688078606154</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.11797646725898</v>
+        <v>68.11797646725897</v>
       </c>
       <c r="R31" t="n">
-        <v>36.57708301021201</v>
+        <v>36.577083010212</v>
       </c>
       <c r="S31" t="n">
-        <v>14.17676266287433</v>
+        <v>14.17676266287432</v>
       </c>
       <c r="T31" t="n">
         <v>3.475784273109511</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.813517294213024</v>
+        <v>1.813517294213023</v>
       </c>
       <c r="H32" t="n">
         <v>18.57268398935913</v>
       </c>
       <c r="I32" t="n">
-        <v>69.91562548514766</v>
+        <v>69.91562548514764</v>
       </c>
       <c r="J32" t="n">
         <v>153.9200134497127</v>
       </c>
       <c r="K32" t="n">
-        <v>230.6862005137501</v>
+        <v>230.68620051375</v>
       </c>
       <c r="L32" t="n">
         <v>286.1866304065219</v>
       </c>
       <c r="M32" t="n">
-        <v>318.4377685874828</v>
+        <v>318.4377685874827</v>
       </c>
       <c r="N32" t="n">
-        <v>317.299301638051</v>
+        <v>317.2993016380509</v>
       </c>
       <c r="O32" t="n">
-        <v>305.5572620053348</v>
+        <v>305.5572620053347</v>
       </c>
       <c r="P32" t="n">
-        <v>260.7860538044508</v>
+        <v>260.7860538044507</v>
       </c>
       <c r="Q32" t="n">
-        <v>195.8394657054468</v>
+        <v>195.8394657054467</v>
       </c>
       <c r="R32" t="n">
         <v>113.9183557326089</v>
       </c>
       <c r="S32" t="n">
-        <v>41.32552534187932</v>
+        <v>41.32552534187931</v>
       </c>
       <c r="T32" t="n">
-        <v>7.938671955417515</v>
+        <v>7.938671955417512</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1450813835370419</v>
+        <v>0.1450813835370418</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9703172956725633</v>
+        <v>0.9703172956725631</v>
       </c>
       <c r="H33" t="n">
-        <v>9.371222302942916</v>
+        <v>9.371222302942913</v>
       </c>
       <c r="I33" t="n">
-        <v>33.40785425890186</v>
+        <v>33.40785425890185</v>
       </c>
       <c r="J33" t="n">
-        <v>91.67370555299425</v>
+        <v>91.67370555299424</v>
       </c>
       <c r="K33" t="n">
         <v>156.684964363056</v>
@@ -33508,13 +33508,13 @@
         <v>183.1007068489893</v>
       </c>
       <c r="M33" t="n">
-        <v>210.8188854350724</v>
+        <v>210.8188854350723</v>
       </c>
       <c r="N33" t="n">
-        <v>197.6522527918767</v>
+        <v>197.6522527918766</v>
       </c>
       <c r="O33" t="n">
-        <v>211.3827822724323</v>
+        <v>211.3827822724322</v>
       </c>
       <c r="P33" t="n">
         <v>185.2880456973336</v>
@@ -33523,7 +33523,7 @@
         <v>123.8601516370802</v>
       </c>
       <c r="R33" t="n">
-        <v>60.24478788395093</v>
+        <v>60.24478788395091</v>
       </c>
       <c r="S33" t="n">
         <v>18.02321818935659</v>
@@ -33532,7 +33532,7 @@
         <v>3.911059625978444</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06383666418898445</v>
+        <v>0.06383666418898444</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8134814256213753</v>
+        <v>0.813481425621375</v>
       </c>
       <c r="H34" t="n">
-        <v>7.232589402342778</v>
+        <v>7.232589402342776</v>
       </c>
       <c r="I34" t="n">
         <v>24.463605054141</v>
       </c>
       <c r="J34" t="n">
-        <v>57.51313679143123</v>
+        <v>57.51313679143122</v>
       </c>
       <c r="K34" t="n">
-        <v>94.51175108582885</v>
+        <v>94.51175108582882</v>
       </c>
       <c r="L34" t="n">
         <v>120.9425021328361</v>
@@ -33596,16 +33596,16 @@
         <v>114.9819018687377</v>
       </c>
       <c r="P34" t="n">
-        <v>98.38688078606157</v>
+        <v>98.38688078606154</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.11797646725898</v>
+        <v>68.11797646725897</v>
       </c>
       <c r="R34" t="n">
-        <v>36.57708301021201</v>
+        <v>36.577083010212</v>
       </c>
       <c r="S34" t="n">
-        <v>14.17676266287433</v>
+        <v>14.17676266287432</v>
       </c>
       <c r="T34" t="n">
         <v>3.475784273109511</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.813517294213024</v>
+        <v>1.813517294213023</v>
       </c>
       <c r="H35" t="n">
         <v>18.57268398935913</v>
       </c>
       <c r="I35" t="n">
-        <v>69.91562548514766</v>
+        <v>69.91562548514764</v>
       </c>
       <c r="J35" t="n">
         <v>153.9200134497127</v>
       </c>
       <c r="K35" t="n">
-        <v>230.6862005137501</v>
+        <v>230.68620051375</v>
       </c>
       <c r="L35" t="n">
         <v>286.1866304065219</v>
       </c>
       <c r="M35" t="n">
-        <v>305.8598486081497</v>
+        <v>305.8598486081495</v>
       </c>
       <c r="N35" t="n">
-        <v>304.7213816587179</v>
+        <v>304.7213816587177</v>
       </c>
       <c r="O35" t="n">
-        <v>305.5572620053348</v>
+        <v>305.5572620053347</v>
       </c>
       <c r="P35" t="n">
-        <v>260.7860538044508</v>
+        <v>260.7860538044507</v>
       </c>
       <c r="Q35" t="n">
-        <v>195.8394657054468</v>
+        <v>195.8394657054467</v>
       </c>
       <c r="R35" t="n">
         <v>113.9183557326089</v>
       </c>
       <c r="S35" t="n">
-        <v>41.32552534187932</v>
+        <v>41.32552534187931</v>
       </c>
       <c r="T35" t="n">
-        <v>7.938671955417515</v>
+        <v>7.938671955417512</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1450813835370419</v>
+        <v>0.1450813835370418</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9703172956725633</v>
+        <v>0.9703172956725631</v>
       </c>
       <c r="H36" t="n">
-        <v>9.371222302942916</v>
+        <v>9.371222302942913</v>
       </c>
       <c r="I36" t="n">
-        <v>33.40785425890186</v>
+        <v>33.40785425890185</v>
       </c>
       <c r="J36" t="n">
-        <v>91.67370555299425</v>
+        <v>91.67370555299424</v>
       </c>
       <c r="K36" t="n">
         <v>156.684964363056</v>
       </c>
       <c r="L36" t="n">
-        <v>193.8737874023235</v>
+        <v>171.0309856566998</v>
       </c>
       <c r="M36" t="n">
-        <v>198.2409654557393</v>
+        <v>198.2409654557391</v>
       </c>
       <c r="N36" t="n">
-        <v>162.2315310669201</v>
+        <v>185.0743328125434</v>
       </c>
       <c r="O36" t="n">
-        <v>198.8048622930992</v>
+        <v>198.8048622930989</v>
       </c>
       <c r="P36" t="n">
         <v>185.2880456973336</v>
@@ -33760,7 +33760,7 @@
         <v>123.8601516370802</v>
       </c>
       <c r="R36" t="n">
-        <v>60.24478788395093</v>
+        <v>60.24478788395091</v>
       </c>
       <c r="S36" t="n">
         <v>18.02321818935659</v>
@@ -33769,7 +33769,7 @@
         <v>3.911059625978444</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06383666418898445</v>
+        <v>0.06383666418898444</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8134814256213753</v>
+        <v>0.813481425621375</v>
       </c>
       <c r="H37" t="n">
-        <v>7.232589402342778</v>
+        <v>7.232589402342776</v>
       </c>
       <c r="I37" t="n">
         <v>24.463605054141</v>
       </c>
       <c r="J37" t="n">
-        <v>57.51313679143123</v>
+        <v>57.51313679143122</v>
       </c>
       <c r="K37" t="n">
-        <v>94.51175108582885</v>
+        <v>94.51175108582882</v>
       </c>
       <c r="L37" t="n">
         <v>120.9425021328361</v>
@@ -33833,16 +33833,16 @@
         <v>114.9819018687377</v>
       </c>
       <c r="P37" t="n">
-        <v>98.38688078606157</v>
+        <v>98.38688078606154</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.11797646725898</v>
+        <v>68.11797646725897</v>
       </c>
       <c r="R37" t="n">
-        <v>36.57708301021201</v>
+        <v>36.577083010212</v>
       </c>
       <c r="S37" t="n">
-        <v>14.17676266287433</v>
+        <v>14.17676266287432</v>
       </c>
       <c r="T37" t="n">
         <v>3.475784273109511</v>
@@ -33885,19 +33885,19 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.813517294213024</v>
+        <v>1.813517294213023</v>
       </c>
       <c r="H38" t="n">
         <v>18.57268398935913</v>
       </c>
       <c r="I38" t="n">
-        <v>69.91562548514766</v>
+        <v>69.91562548514764</v>
       </c>
       <c r="J38" t="n">
         <v>153.9200134497127</v>
       </c>
       <c r="K38" t="n">
-        <v>230.6862005137501</v>
+        <v>230.68620051375</v>
       </c>
       <c r="L38" t="n">
         <v>286.1866304065219</v>
@@ -33909,25 +33909,25 @@
         <v>304.7213816587179</v>
       </c>
       <c r="O38" t="n">
-        <v>305.5572620053348</v>
+        <v>305.5572620053347</v>
       </c>
       <c r="P38" t="n">
-        <v>260.7860538044508</v>
+        <v>260.7860538044507</v>
       </c>
       <c r="Q38" t="n">
-        <v>195.8394657054468</v>
+        <v>195.8394657054467</v>
       </c>
       <c r="R38" t="n">
         <v>113.9183557326089</v>
       </c>
       <c r="S38" t="n">
-        <v>41.32552534187932</v>
+        <v>41.32552534187931</v>
       </c>
       <c r="T38" t="n">
-        <v>7.938671955417515</v>
+        <v>7.938671955417512</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1450813835370419</v>
+        <v>0.1450813835370418</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9703172956725633</v>
+        <v>0.9703172956725631</v>
       </c>
       <c r="H39" t="n">
-        <v>9.371222302942916</v>
+        <v>9.371222302942913</v>
       </c>
       <c r="I39" t="n">
-        <v>33.40785425890186</v>
+        <v>33.40785425890185</v>
       </c>
       <c r="J39" t="n">
-        <v>91.67370555299425</v>
+        <v>91.67370555299424</v>
       </c>
       <c r="K39" t="n">
         <v>156.684964363056</v>
@@ -33988,7 +33988,7 @@
         <v>185.0743328125436</v>
       </c>
       <c r="O39" t="n">
-        <v>198.8048622930992</v>
+        <v>198.8048622930991</v>
       </c>
       <c r="P39" t="n">
         <v>185.2880456973336</v>
@@ -33997,7 +33997,7 @@
         <v>123.8601516370802</v>
       </c>
       <c r="R39" t="n">
-        <v>60.24478788395093</v>
+        <v>60.24478788395091</v>
       </c>
       <c r="S39" t="n">
         <v>18.02321818935659</v>
@@ -34006,7 +34006,7 @@
         <v>3.911059625978444</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06383666418898445</v>
+        <v>0.06383666418898444</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8134814256213753</v>
+        <v>0.813481425621375</v>
       </c>
       <c r="H40" t="n">
-        <v>7.232589402342778</v>
+        <v>7.232589402342776</v>
       </c>
       <c r="I40" t="n">
         <v>24.463605054141</v>
       </c>
       <c r="J40" t="n">
-        <v>57.51313679143123</v>
+        <v>57.51313679143122</v>
       </c>
       <c r="K40" t="n">
-        <v>94.51175108582885</v>
+        <v>94.51175108582882</v>
       </c>
       <c r="L40" t="n">
         <v>120.9425021328361</v>
@@ -34070,16 +34070,16 @@
         <v>114.9819018687377</v>
       </c>
       <c r="P40" t="n">
-        <v>98.38688078606157</v>
+        <v>98.38688078606154</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.11797646725898</v>
+        <v>68.11797646725897</v>
       </c>
       <c r="R40" t="n">
-        <v>36.57708301021201</v>
+        <v>36.577083010212</v>
       </c>
       <c r="S40" t="n">
-        <v>14.17676266287433</v>
+        <v>14.17676266287432</v>
       </c>
       <c r="T40" t="n">
         <v>3.475784273109511</v>
@@ -34122,19 +34122,19 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.813517294213024</v>
+        <v>1.813517294213023</v>
       </c>
       <c r="H41" t="n">
         <v>18.57268398935913</v>
       </c>
       <c r="I41" t="n">
-        <v>69.91562548514766</v>
+        <v>69.91562548514764</v>
       </c>
       <c r="J41" t="n">
         <v>153.9200134497127</v>
       </c>
       <c r="K41" t="n">
-        <v>230.6862005137501</v>
+        <v>230.68620051375</v>
       </c>
       <c r="L41" t="n">
         <v>286.1866304065219</v>
@@ -34146,25 +34146,25 @@
         <v>304.7213816587179</v>
       </c>
       <c r="O41" t="n">
-        <v>305.5572620053348</v>
+        <v>305.5572620053347</v>
       </c>
       <c r="P41" t="n">
-        <v>260.7860538044508</v>
+        <v>260.7860538044507</v>
       </c>
       <c r="Q41" t="n">
-        <v>195.8394657054468</v>
+        <v>195.8394657054467</v>
       </c>
       <c r="R41" t="n">
         <v>113.9183557326089</v>
       </c>
       <c r="S41" t="n">
-        <v>41.32552534187932</v>
+        <v>41.32552534187931</v>
       </c>
       <c r="T41" t="n">
-        <v>7.938671955417515</v>
+        <v>7.938671955417512</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1450813835370419</v>
+        <v>0.1450813835370418</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9703172956725633</v>
+        <v>0.9703172956725631</v>
       </c>
       <c r="H42" t="n">
-        <v>9.371222302942916</v>
+        <v>9.371222302942913</v>
       </c>
       <c r="I42" t="n">
-        <v>33.40785425890186</v>
+        <v>33.40785425890185</v>
       </c>
       <c r="J42" t="n">
-        <v>91.67370555299425</v>
+        <v>91.67370555299424</v>
       </c>
       <c r="K42" t="n">
         <v>156.684964363056</v>
       </c>
       <c r="L42" t="n">
-        <v>171.0309856567</v>
+        <v>193.8737874023234</v>
       </c>
       <c r="M42" t="n">
         <v>198.2409654557393</v>
       </c>
       <c r="N42" t="n">
-        <v>185.0743328125436</v>
+        <v>162.2315310669201</v>
       </c>
       <c r="O42" t="n">
-        <v>198.8048622930992</v>
+        <v>198.8048622930991</v>
       </c>
       <c r="P42" t="n">
         <v>185.2880456973336</v>
@@ -34234,7 +34234,7 @@
         <v>123.8601516370802</v>
       </c>
       <c r="R42" t="n">
-        <v>60.24478788395093</v>
+        <v>60.24478788395091</v>
       </c>
       <c r="S42" t="n">
         <v>18.02321818935659</v>
@@ -34243,7 +34243,7 @@
         <v>3.911059625978444</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06383666418898445</v>
+        <v>0.06383666418898444</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8134814256213753</v>
+        <v>0.813481425621375</v>
       </c>
       <c r="H43" t="n">
-        <v>7.232589402342778</v>
+        <v>7.232589402342776</v>
       </c>
       <c r="I43" t="n">
         <v>24.463605054141</v>
       </c>
       <c r="J43" t="n">
-        <v>57.51313679143123</v>
+        <v>57.51313679143122</v>
       </c>
       <c r="K43" t="n">
-        <v>94.51175108582885</v>
+        <v>94.51175108582882</v>
       </c>
       <c r="L43" t="n">
         <v>120.9425021328361</v>
@@ -34307,16 +34307,16 @@
         <v>114.9819018687377</v>
       </c>
       <c r="P43" t="n">
-        <v>98.38688078606157</v>
+        <v>98.38688078606154</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.11797646725898</v>
+        <v>68.11797646725897</v>
       </c>
       <c r="R43" t="n">
-        <v>36.57708301021201</v>
+        <v>36.577083010212</v>
       </c>
       <c r="S43" t="n">
-        <v>14.17676266287433</v>
+        <v>14.17676266287432</v>
       </c>
       <c r="T43" t="n">
         <v>3.475784273109511</v>
@@ -34365,13 +34365,13 @@
         <v>18.57268398935913</v>
       </c>
       <c r="I44" t="n">
-        <v>69.91562548514766</v>
+        <v>69.91562548514764</v>
       </c>
       <c r="J44" t="n">
         <v>153.9200134497127</v>
       </c>
       <c r="K44" t="n">
-        <v>230.6862005137501</v>
+        <v>230.68620051375</v>
       </c>
       <c r="L44" t="n">
         <v>286.1866304065219</v>
@@ -34383,13 +34383,13 @@
         <v>304.7213816587179</v>
       </c>
       <c r="O44" t="n">
-        <v>305.5572620053348</v>
+        <v>305.5572620053347</v>
       </c>
       <c r="P44" t="n">
         <v>260.7860538044507</v>
       </c>
       <c r="Q44" t="n">
-        <v>195.8394657054468</v>
+        <v>195.8394657054467</v>
       </c>
       <c r="R44" t="n">
         <v>113.9183557326089</v>
@@ -34398,7 +34398,7 @@
         <v>41.32552534187931</v>
       </c>
       <c r="T44" t="n">
-        <v>7.938671955417514</v>
+        <v>7.938671955417512</v>
       </c>
       <c r="U44" t="n">
         <v>0.1450813835370418</v>
@@ -34438,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9703172956725632</v>
+        <v>0.9703172956725631</v>
       </c>
       <c r="H45" t="n">
-        <v>9.371222302942915</v>
+        <v>9.371222302942913</v>
       </c>
       <c r="I45" t="n">
         <v>33.40785425890185</v>
       </c>
       <c r="J45" t="n">
-        <v>91.67370555299425</v>
+        <v>91.67370555299424</v>
       </c>
       <c r="K45" t="n">
         <v>156.684964363056</v>
       </c>
       <c r="L45" t="n">
-        <v>193.8737874023235</v>
+        <v>171.0309856567</v>
       </c>
       <c r="M45" t="n">
         <v>198.2409654557393</v>
@@ -34462,7 +34462,7 @@
         <v>185.0743328125436</v>
       </c>
       <c r="O45" t="n">
-        <v>175.9620605474757</v>
+        <v>198.8048622930991</v>
       </c>
       <c r="P45" t="n">
         <v>185.2880456973336</v>
@@ -34471,7 +34471,7 @@
         <v>123.8601516370802</v>
       </c>
       <c r="R45" t="n">
-        <v>60.24478788395092</v>
+        <v>60.24478788395091</v>
       </c>
       <c r="S45" t="n">
         <v>18.02321818935659</v>
@@ -34480,7 +34480,7 @@
         <v>3.911059625978444</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06383666418898445</v>
+        <v>0.06383666418898444</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8134814256213752</v>
+        <v>0.813481425621375</v>
       </c>
       <c r="H46" t="n">
-        <v>7.232589402342777</v>
+        <v>7.232589402342776</v>
       </c>
       <c r="I46" t="n">
         <v>24.463605054141</v>
@@ -34529,7 +34529,7 @@
         <v>57.51313679143122</v>
       </c>
       <c r="K46" t="n">
-        <v>94.51175108582883</v>
+        <v>94.51175108582882</v>
       </c>
       <c r="L46" t="n">
         <v>120.9425021328361</v>
@@ -34544,13 +34544,13 @@
         <v>114.9819018687377</v>
       </c>
       <c r="P46" t="n">
-        <v>98.38688078606155</v>
+        <v>98.38688078606154</v>
       </c>
       <c r="Q46" t="n">
         <v>68.11797646725897</v>
       </c>
       <c r="R46" t="n">
-        <v>36.57708301021201</v>
+        <v>36.577083010212</v>
       </c>
       <c r="S46" t="n">
         <v>14.17676266287432</v>
@@ -35418,13 +35418,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="N11" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="O11" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="M12" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="N12" t="n">
-        <v>24.83744407087698</v>
+        <v>1.994642325253444</v>
       </c>
       <c r="O12" t="n">
-        <v>1.994642325253466</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="P12" t="n">
-        <v>21.83926865185072</v>
+        <v>21.83926865185069</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35655,13 +35655,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="N14" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="O14" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>23.83391097710418</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="M15" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="N15" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="O15" t="n">
-        <v>24.83744407087698</v>
+        <v>23.83391097710412</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35892,13 +35892,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="N17" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="O17" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="M18" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="N18" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="O18" t="n">
-        <v>23.83391097710418</v>
+        <v>23.83391097710412</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36129,13 +36129,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>24.83744407087702</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="N20" t="n">
-        <v>24.83744407087702</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="O20" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1.994642325253493</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="M21" t="n">
-        <v>24.83744407087702</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="N21" t="n">
-        <v>24.83744407087702</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="O21" t="n">
-        <v>24.83744407087702</v>
+        <v>1.994642325253437</v>
       </c>
       <c r="P21" t="n">
-        <v>21.83926865185072</v>
+        <v>21.83926865185069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36366,13 +36366,13 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>37.41536405021009</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="N23" t="n">
-        <v>37.41536405021009</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="O23" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>37.41536405021009</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="M24" t="n">
-        <v>37.41536405021009</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="N24" t="n">
-        <v>37.41536405021009</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="O24" t="n">
-        <v>14.06436351754281</v>
+        <v>14.06436351754272</v>
       </c>
       <c r="P24" t="n">
-        <v>21.83926865185072</v>
+        <v>21.83926865185069</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36603,13 +36603,13 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>37.41536405021009</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="N26" t="n">
-        <v>37.41536405021009</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="O26" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>37.41536405021009</v>
+        <v>14.06436351754273</v>
       </c>
       <c r="M27" t="n">
-        <v>37.41536405021009</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="N27" t="n">
-        <v>37.41536405021009</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="O27" t="n">
-        <v>14.06436351754281</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="P27" t="n">
-        <v>21.83926865185072</v>
+        <v>21.83926865185069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36840,13 +36840,13 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>37.41536405021009</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="N29" t="n">
-        <v>37.41536405021009</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="O29" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>37.41536405021009</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="M30" t="n">
-        <v>37.41536405021009</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="N30" t="n">
-        <v>37.41536405021009</v>
+        <v>35.9036321693934</v>
       </c>
       <c r="O30" t="n">
-        <v>14.06436351754281</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="P30" t="n">
-        <v>21.83926865185072</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37077,13 +37077,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>37.41536405021009</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="N32" t="n">
-        <v>37.41536405021009</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="O32" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>14.06436351754281</v>
+        <v>14.06436351754273</v>
       </c>
       <c r="M33" t="n">
-        <v>37.41536405021009</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="N33" t="n">
-        <v>37.41536405021009</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="O33" t="n">
-        <v>37.41536405021009</v>
+        <v>37.41536405020997</v>
       </c>
       <c r="P33" t="n">
-        <v>21.83926865185072</v>
+        <v>21.83926865185069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37314,13 +37314,13 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087676</v>
       </c>
       <c r="N35" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087676</v>
       </c>
       <c r="O35" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>24.83744407087698</v>
+        <v>1.994642325253285</v>
       </c>
       <c r="M36" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087676</v>
       </c>
       <c r="N36" t="n">
-        <v>1.994642325253466</v>
+        <v>24.83744407087676</v>
       </c>
       <c r="O36" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087676</v>
       </c>
       <c r="P36" t="n">
-        <v>21.83926865185072</v>
+        <v>21.83926865185069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37551,13 +37551,13 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="N38" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="O38" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>1.994642325253467</v>
+        <v>1.994642325253443</v>
       </c>
       <c r="M39" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="N39" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="O39" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="P39" t="n">
-        <v>21.83926865185072</v>
+        <v>21.83926865185069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37788,13 +37788,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="N41" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="O41" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>1.994642325253467</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="M42" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="N42" t="n">
-        <v>24.83744407087698</v>
+        <v>1.994642325253444</v>
       </c>
       <c r="O42" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="P42" t="n">
-        <v>21.83926865185072</v>
+        <v>21.83926865185069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38025,13 +38025,13 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="N44" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="O44" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>24.83744407087698</v>
+        <v>1.994642325253443</v>
       </c>
       <c r="M45" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="N45" t="n">
-        <v>24.83744407087698</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="O45" t="n">
-        <v>1.994642325253466</v>
+        <v>24.83744407087693</v>
       </c>
       <c r="P45" t="n">
-        <v>21.83926865185072</v>
+        <v>21.83926865185069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
